--- a/data/Web_MEM_Suxarevskaya/2024_05_mem_suxarevskaya.xlsx
+++ b/data/Web_MEM_Suxarevskaya/2024_05_mem_suxarevskaya.xlsx
@@ -2679,7 +2679,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>1714521600</v>
+        <v>1714510800</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>1714525200</v>
+        <v>1714514400</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>1714528800</v>
+        <v>1714518000</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>1714532400</v>
+        <v>1714521600</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>1714536000</v>
+        <v>1714525200</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>1714539600</v>
+        <v>1714528800</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>1714543200</v>
+        <v>1714532400</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>1714546800</v>
+        <v>1714536000</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>1714550400</v>
+        <v>1714539600</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>1714554000</v>
+        <v>1714543200</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -2939,7 +2939,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>1714557600</v>
+        <v>1714546800</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -2965,7 +2965,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>1714561200</v>
+        <v>1714550400</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>1714564800</v>
+        <v>1714554000</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>1714568400</v>
+        <v>1714557600</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>1714572000</v>
+        <v>1714561200</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>1714575600</v>
+        <v>1714564800</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>1714579200</v>
+        <v>1714568400</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>1714582800</v>
+        <v>1714572000</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>1714586400</v>
+        <v>1714575600</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -3173,7 +3173,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>1714590000</v>
+        <v>1714579200</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>1714593600</v>
+        <v>1714582800</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>1714597200</v>
+        <v>1714586400</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>1714600800</v>
+        <v>1714590000</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
@@ -3277,7 +3277,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>1714604400</v>
+        <v>1714593600</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>1714608000</v>
+        <v>1714597200</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>1714611600</v>
+        <v>1714600800</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>1714615200</v>
+        <v>1714604400</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
@@ -3381,7 +3381,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>1714618800</v>
+        <v>1714608000</v>
       </c>
       <c r="B29" t="s">
         <v>38</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>1714622400</v>
+        <v>1714611600</v>
       </c>
       <c r="B30" t="s">
         <v>39</v>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>1714626000</v>
+        <v>1714615200</v>
       </c>
       <c r="B31" t="s">
         <v>40</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <v>1714629600</v>
+        <v>1714618800</v>
       </c>
       <c r="B32" t="s">
         <v>41</v>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <v>1714633200</v>
+        <v>1714622400</v>
       </c>
       <c r="B33" t="s">
         <v>42</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <v>1714636800</v>
+        <v>1714626000</v>
       </c>
       <c r="B34" t="s">
         <v>43</v>
@@ -3537,7 +3537,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>1714640400</v>
+        <v>1714629600</v>
       </c>
       <c r="B35" t="s">
         <v>44</v>
@@ -3563,7 +3563,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>1714644000</v>
+        <v>1714633200</v>
       </c>
       <c r="B36" t="s">
         <v>45</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>1714647600</v>
+        <v>1714636800</v>
       </c>
       <c r="B37" t="s">
         <v>46</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>1714651200</v>
+        <v>1714640400</v>
       </c>
       <c r="B38" t="s">
         <v>47</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>1714654800</v>
+        <v>1714644000</v>
       </c>
       <c r="B39" t="s">
         <v>48</v>
@@ -3667,7 +3667,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>1714658400</v>
+        <v>1714647600</v>
       </c>
       <c r="B40" t="s">
         <v>49</v>
@@ -3693,7 +3693,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <v>1714662000</v>
+        <v>1714651200</v>
       </c>
       <c r="B41" t="s">
         <v>50</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <v>1714665600</v>
+        <v>1714654800</v>
       </c>
       <c r="B42" t="s">
         <v>51</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43">
-        <v>1714669200</v>
+        <v>1714658400</v>
       </c>
       <c r="B43" t="s">
         <v>52</v>
@@ -3771,7 +3771,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44">
-        <v>1714672800</v>
+        <v>1714662000</v>
       </c>
       <c r="B44" t="s">
         <v>53</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45">
-        <v>1714676400</v>
+        <v>1714665600</v>
       </c>
       <c r="B45" t="s">
         <v>54</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46">
-        <v>1714680000</v>
+        <v>1714669200</v>
       </c>
       <c r="B46" t="s">
         <v>55</v>
@@ -3849,7 +3849,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47">
-        <v>1714683600</v>
+        <v>1714672800</v>
       </c>
       <c r="B47" t="s">
         <v>56</v>
@@ -3875,7 +3875,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48">
-        <v>1714687200</v>
+        <v>1714676400</v>
       </c>
       <c r="B48" t="s">
         <v>57</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49">
-        <v>1714690800</v>
+        <v>1714680000</v>
       </c>
       <c r="B49" t="s">
         <v>58</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50">
-        <v>1714694400</v>
+        <v>1714683600</v>
       </c>
       <c r="B50" t="s">
         <v>59</v>
@@ -3953,7 +3953,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51">
-        <v>1714698000</v>
+        <v>1714687200</v>
       </c>
       <c r="B51" t="s">
         <v>60</v>
@@ -3979,7 +3979,7 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52">
-        <v>1714701600</v>
+        <v>1714690800</v>
       </c>
       <c r="B52" t="s">
         <v>61</v>
@@ -4005,7 +4005,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53">
-        <v>1714705200</v>
+        <v>1714694400</v>
       </c>
       <c r="B53" t="s">
         <v>62</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54">
-        <v>1714708800</v>
+        <v>1714698000</v>
       </c>
       <c r="B54" t="s">
         <v>63</v>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55">
-        <v>1714712400</v>
+        <v>1714701600</v>
       </c>
       <c r="B55" t="s">
         <v>64</v>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56">
-        <v>1714716000</v>
+        <v>1714705200</v>
       </c>
       <c r="B56" t="s">
         <v>65</v>
@@ -4109,7 +4109,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57">
-        <v>1714719600</v>
+        <v>1714708800</v>
       </c>
       <c r="B57" t="s">
         <v>66</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58">
-        <v>1714723200</v>
+        <v>1714712400</v>
       </c>
       <c r="B58" t="s">
         <v>67</v>
@@ -4161,7 +4161,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59">
-        <v>1714726800</v>
+        <v>1714716000</v>
       </c>
       <c r="B59" t="s">
         <v>68</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60">
-        <v>1714730400</v>
+        <v>1714719600</v>
       </c>
       <c r="B60" t="s">
         <v>69</v>
@@ -4213,7 +4213,7 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61">
-        <v>1714734000</v>
+        <v>1714723200</v>
       </c>
       <c r="B61" t="s">
         <v>70</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62">
-        <v>1714737600</v>
+        <v>1714726800</v>
       </c>
       <c r="B62" t="s">
         <v>71</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63">
-        <v>1714741200</v>
+        <v>1714730400</v>
       </c>
       <c r="B63" t="s">
         <v>72</v>
@@ -4291,7 +4291,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64">
-        <v>1714744800</v>
+        <v>1714734000</v>
       </c>
       <c r="B64" t="s">
         <v>73</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65">
-        <v>1714748400</v>
+        <v>1714737600</v>
       </c>
       <c r="B65" t="s">
         <v>74</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66">
-        <v>1714752000</v>
+        <v>1714741200</v>
       </c>
       <c r="B66" t="s">
         <v>75</v>
@@ -4369,7 +4369,7 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67">
-        <v>1714755600</v>
+        <v>1714744800</v>
       </c>
       <c r="B67" t="s">
         <v>76</v>
@@ -4395,7 +4395,7 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68">
-        <v>1714759200</v>
+        <v>1714748400</v>
       </c>
       <c r="B68" t="s">
         <v>77</v>
@@ -4421,7 +4421,7 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69">
-        <v>1714762800</v>
+        <v>1714752000</v>
       </c>
       <c r="B69" t="s">
         <v>78</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70">
-        <v>1714766400</v>
+        <v>1714755600</v>
       </c>
       <c r="B70" t="s">
         <v>79</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71">
-        <v>1714770000</v>
+        <v>1714759200</v>
       </c>
       <c r="B71" t="s">
         <v>80</v>
@@ -4499,7 +4499,7 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72">
-        <v>1714773600</v>
+        <v>1714762800</v>
       </c>
       <c r="B72" t="s">
         <v>81</v>
@@ -4525,7 +4525,7 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73">
-        <v>1714777200</v>
+        <v>1714766400</v>
       </c>
       <c r="B73" t="s">
         <v>82</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74">
-        <v>1714780800</v>
+        <v>1714770000</v>
       </c>
       <c r="B74" t="s">
         <v>83</v>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75">
-        <v>1714784400</v>
+        <v>1714773600</v>
       </c>
       <c r="B75" t="s">
         <v>84</v>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76">
-        <v>1714788000</v>
+        <v>1714777200</v>
       </c>
       <c r="B76" t="s">
         <v>85</v>
@@ -4629,7 +4629,7 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77">
-        <v>1714791600</v>
+        <v>1714780800</v>
       </c>
       <c r="B77" t="s">
         <v>86</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78">
-        <v>1714795200</v>
+        <v>1714784400</v>
       </c>
       <c r="B78" t="s">
         <v>87</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79">
-        <v>1714798800</v>
+        <v>1714788000</v>
       </c>
       <c r="B79" t="s">
         <v>88</v>
@@ -4707,7 +4707,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80">
-        <v>1714802400</v>
+        <v>1714791600</v>
       </c>
       <c r="B80" t="s">
         <v>89</v>
@@ -4733,7 +4733,7 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81">
-        <v>1714806000</v>
+        <v>1714795200</v>
       </c>
       <c r="B81" t="s">
         <v>90</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82">
-        <v>1714809600</v>
+        <v>1714798800</v>
       </c>
       <c r="B82" t="s">
         <v>91</v>
@@ -4785,7 +4785,7 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83">
-        <v>1714813200</v>
+        <v>1714802400</v>
       </c>
       <c r="B83" t="s">
         <v>92</v>
@@ -4811,7 +4811,7 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84">
-        <v>1714816800</v>
+        <v>1714806000</v>
       </c>
       <c r="B84" t="s">
         <v>93</v>
@@ -4837,7 +4837,7 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85">
-        <v>1714820400</v>
+        <v>1714809600</v>
       </c>
       <c r="B85" t="s">
         <v>94</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86">
-        <v>1714824000</v>
+        <v>1714813200</v>
       </c>
       <c r="B86" t="s">
         <v>95</v>
@@ -4889,7 +4889,7 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87">
-        <v>1714827600</v>
+        <v>1714816800</v>
       </c>
       <c r="B87" t="s">
         <v>96</v>
@@ -4915,7 +4915,7 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88">
-        <v>1714831200</v>
+        <v>1714820400</v>
       </c>
       <c r="B88" t="s">
         <v>97</v>
@@ -4941,7 +4941,7 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89">
-        <v>1714834800</v>
+        <v>1714824000</v>
       </c>
       <c r="B89" t="s">
         <v>98</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90">
-        <v>1714838400</v>
+        <v>1714827600</v>
       </c>
       <c r="B90" t="s">
         <v>99</v>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91">
-        <v>1714842000</v>
+        <v>1714831200</v>
       </c>
       <c r="B91" t="s">
         <v>100</v>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92">
-        <v>1714845600</v>
+        <v>1714834800</v>
       </c>
       <c r="B92" t="s">
         <v>101</v>
@@ -5045,7 +5045,7 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93">
-        <v>1714849200</v>
+        <v>1714838400</v>
       </c>
       <c r="B93" t="s">
         <v>102</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94">
-        <v>1714852800</v>
+        <v>1714842000</v>
       </c>
       <c r="B94" t="s">
         <v>103</v>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95">
-        <v>1714856400</v>
+        <v>1714845600</v>
       </c>
       <c r="B95" t="s">
         <v>104</v>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96">
-        <v>1714860000</v>
+        <v>1714849200</v>
       </c>
       <c r="B96" t="s">
         <v>105</v>
@@ -5149,7 +5149,7 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97">
-        <v>1714863600</v>
+        <v>1714852800</v>
       </c>
       <c r="B97" t="s">
         <v>106</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98">
-        <v>1714867200</v>
+        <v>1714856400</v>
       </c>
       <c r="B98" t="s">
         <v>107</v>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99">
-        <v>1714870800</v>
+        <v>1714860000</v>
       </c>
       <c r="B99" t="s">
         <v>108</v>
@@ -5227,7 +5227,7 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100">
-        <v>1714874400</v>
+        <v>1714863600</v>
       </c>
       <c r="B100" t="s">
         <v>109</v>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101">
-        <v>1714878000</v>
+        <v>1714867200</v>
       </c>
       <c r="B101" t="s">
         <v>110</v>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102">
-        <v>1714881600</v>
+        <v>1714870800</v>
       </c>
       <c r="B102" t="s">
         <v>111</v>
@@ -5305,7 +5305,7 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103">
-        <v>1714885200</v>
+        <v>1714874400</v>
       </c>
       <c r="B103" t="s">
         <v>112</v>
@@ -5331,7 +5331,7 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104">
-        <v>1714888800</v>
+        <v>1714878000</v>
       </c>
       <c r="B104" t="s">
         <v>113</v>
@@ -5357,7 +5357,7 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105">
-        <v>1714892400</v>
+        <v>1714881600</v>
       </c>
       <c r="B105" t="s">
         <v>114</v>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106">
-        <v>1714896000</v>
+        <v>1714885200</v>
       </c>
       <c r="B106" t="s">
         <v>115</v>
@@ -5409,7 +5409,7 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107">
-        <v>1714899600</v>
+        <v>1714888800</v>
       </c>
       <c r="B107" t="s">
         <v>116</v>
@@ -5435,7 +5435,7 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108">
-        <v>1714903200</v>
+        <v>1714892400</v>
       </c>
       <c r="B108" t="s">
         <v>117</v>
@@ -5461,7 +5461,7 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109">
-        <v>1714906800</v>
+        <v>1714896000</v>
       </c>
       <c r="B109" t="s">
         <v>118</v>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110">
-        <v>1714910400</v>
+        <v>1714899600</v>
       </c>
       <c r="B110" t="s">
         <v>119</v>
@@ -5513,7 +5513,7 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111">
-        <v>1714914000</v>
+        <v>1714903200</v>
       </c>
       <c r="B111" t="s">
         <v>120</v>
@@ -5539,7 +5539,7 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112">
-        <v>1714917600</v>
+        <v>1714906800</v>
       </c>
       <c r="B112" t="s">
         <v>121</v>
@@ -5565,7 +5565,7 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113">
-        <v>1714921200</v>
+        <v>1714910400</v>
       </c>
       <c r="B113" t="s">
         <v>122</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114">
-        <v>1714924800</v>
+        <v>1714914000</v>
       </c>
       <c r="B114" t="s">
         <v>123</v>
@@ -5617,7 +5617,7 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115">
-        <v>1714928400</v>
+        <v>1714917600</v>
       </c>
       <c r="B115" t="s">
         <v>124</v>
@@ -5643,7 +5643,7 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116">
-        <v>1714932000</v>
+        <v>1714921200</v>
       </c>
       <c r="B116" t="s">
         <v>125</v>
@@ -5669,7 +5669,7 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117">
-        <v>1714935600</v>
+        <v>1714924800</v>
       </c>
       <c r="B117" t="s">
         <v>126</v>
@@ -5695,7 +5695,7 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118">
-        <v>1714939200</v>
+        <v>1714928400</v>
       </c>
       <c r="B118" t="s">
         <v>127</v>
@@ -5721,7 +5721,7 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119">
-        <v>1714942800</v>
+        <v>1714932000</v>
       </c>
       <c r="B119" t="s">
         <v>128</v>
@@ -5747,7 +5747,7 @@
     </row>
     <row r="120" spans="1:11">
       <c r="A120">
-        <v>1714946400</v>
+        <v>1714935600</v>
       </c>
       <c r="B120" t="s">
         <v>129</v>
@@ -5773,7 +5773,7 @@
     </row>
     <row r="121" spans="1:11">
       <c r="A121">
-        <v>1714950000</v>
+        <v>1714939200</v>
       </c>
       <c r="B121" t="s">
         <v>130</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122">
-        <v>1714953600</v>
+        <v>1714942800</v>
       </c>
       <c r="B122" t="s">
         <v>131</v>
@@ -5825,7 +5825,7 @@
     </row>
     <row r="123" spans="1:11">
       <c r="A123">
-        <v>1714957200</v>
+        <v>1714946400</v>
       </c>
       <c r="B123" t="s">
         <v>132</v>
@@ -5851,7 +5851,7 @@
     </row>
     <row r="124" spans="1:11">
       <c r="A124">
-        <v>1714960800</v>
+        <v>1714950000</v>
       </c>
       <c r="B124" t="s">
         <v>133</v>
@@ -5877,7 +5877,7 @@
     </row>
     <row r="125" spans="1:11">
       <c r="A125">
-        <v>1714964400</v>
+        <v>1714953600</v>
       </c>
       <c r="B125" t="s">
         <v>134</v>
@@ -5903,7 +5903,7 @@
     </row>
     <row r="126" spans="1:11">
       <c r="A126">
-        <v>1714968000</v>
+        <v>1714957200</v>
       </c>
       <c r="B126" t="s">
         <v>135</v>
@@ -5929,7 +5929,7 @@
     </row>
     <row r="127" spans="1:11">
       <c r="A127">
-        <v>1714971600</v>
+        <v>1714960800</v>
       </c>
       <c r="B127" t="s">
         <v>136</v>
@@ -5955,7 +5955,7 @@
     </row>
     <row r="128" spans="1:11">
       <c r="A128">
-        <v>1714975200</v>
+        <v>1714964400</v>
       </c>
       <c r="B128" t="s">
         <v>137</v>
@@ -5981,7 +5981,7 @@
     </row>
     <row r="129" spans="1:11">
       <c r="A129">
-        <v>1714978800</v>
+        <v>1714968000</v>
       </c>
       <c r="B129" t="s">
         <v>138</v>
@@ -6007,7 +6007,7 @@
     </row>
     <row r="130" spans="1:11">
       <c r="A130">
-        <v>1714982400</v>
+        <v>1714971600</v>
       </c>
       <c r="B130" t="s">
         <v>139</v>
@@ -6033,7 +6033,7 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131">
-        <v>1714986000</v>
+        <v>1714975200</v>
       </c>
       <c r="B131" t="s">
         <v>140</v>
@@ -6059,7 +6059,7 @@
     </row>
     <row r="132" spans="1:11">
       <c r="A132">
-        <v>1714989600</v>
+        <v>1714978800</v>
       </c>
       <c r="B132" t="s">
         <v>141</v>
@@ -6085,7 +6085,7 @@
     </row>
     <row r="133" spans="1:11">
       <c r="A133">
-        <v>1714993200</v>
+        <v>1714982400</v>
       </c>
       <c r="B133" t="s">
         <v>142</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="134" spans="1:11">
       <c r="A134">
-        <v>1714996800</v>
+        <v>1714986000</v>
       </c>
       <c r="B134" t="s">
         <v>143</v>
@@ -6137,7 +6137,7 @@
     </row>
     <row r="135" spans="1:11">
       <c r="A135">
-        <v>1715000400</v>
+        <v>1714989600</v>
       </c>
       <c r="B135" t="s">
         <v>144</v>
@@ -6163,7 +6163,7 @@
     </row>
     <row r="136" spans="1:11">
       <c r="A136">
-        <v>1715004000</v>
+        <v>1714993200</v>
       </c>
       <c r="B136" t="s">
         <v>145</v>
@@ -6189,7 +6189,7 @@
     </row>
     <row r="137" spans="1:11">
       <c r="A137">
-        <v>1715007600</v>
+        <v>1714996800</v>
       </c>
       <c r="B137" t="s">
         <v>146</v>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="138" spans="1:11">
       <c r="A138">
-        <v>1715011200</v>
+        <v>1715000400</v>
       </c>
       <c r="B138" t="s">
         <v>147</v>
@@ -6241,7 +6241,7 @@
     </row>
     <row r="139" spans="1:11">
       <c r="A139">
-        <v>1715014800</v>
+        <v>1715004000</v>
       </c>
       <c r="B139" t="s">
         <v>148</v>
@@ -6267,7 +6267,7 @@
     </row>
     <row r="140" spans="1:11">
       <c r="A140">
-        <v>1715018400</v>
+        <v>1715007600</v>
       </c>
       <c r="B140" t="s">
         <v>149</v>
@@ -6293,7 +6293,7 @@
     </row>
     <row r="141" spans="1:11">
       <c r="A141">
-        <v>1715022000</v>
+        <v>1715011200</v>
       </c>
       <c r="B141" t="s">
         <v>150</v>
@@ -6319,7 +6319,7 @@
     </row>
     <row r="142" spans="1:11">
       <c r="A142">
-        <v>1715025600</v>
+        <v>1715014800</v>
       </c>
       <c r="B142" t="s">
         <v>151</v>
@@ -6345,7 +6345,7 @@
     </row>
     <row r="143" spans="1:11">
       <c r="A143">
-        <v>1715029200</v>
+        <v>1715018400</v>
       </c>
       <c r="B143" t="s">
         <v>152</v>
@@ -6371,7 +6371,7 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144">
-        <v>1715032800</v>
+        <v>1715022000</v>
       </c>
       <c r="B144" t="s">
         <v>153</v>
@@ -6397,7 +6397,7 @@
     </row>
     <row r="145" spans="1:11">
       <c r="A145">
-        <v>1715036400</v>
+        <v>1715025600</v>
       </c>
       <c r="B145" t="s">
         <v>154</v>
@@ -6423,7 +6423,7 @@
     </row>
     <row r="146" spans="1:11">
       <c r="A146">
-        <v>1715040000</v>
+        <v>1715029200</v>
       </c>
       <c r="B146" t="s">
         <v>155</v>
@@ -6449,7 +6449,7 @@
     </row>
     <row r="147" spans="1:11">
       <c r="A147">
-        <v>1715043600</v>
+        <v>1715032800</v>
       </c>
       <c r="B147" t="s">
         <v>156</v>
@@ -6475,7 +6475,7 @@
     </row>
     <row r="148" spans="1:11">
       <c r="A148">
-        <v>1715047200</v>
+        <v>1715036400</v>
       </c>
       <c r="B148" t="s">
         <v>157</v>
@@ -6501,7 +6501,7 @@
     </row>
     <row r="149" spans="1:11">
       <c r="A149">
-        <v>1715050800</v>
+        <v>1715040000</v>
       </c>
       <c r="B149" t="s">
         <v>158</v>
@@ -6527,7 +6527,7 @@
     </row>
     <row r="150" spans="1:11">
       <c r="A150">
-        <v>1715054400</v>
+        <v>1715043600</v>
       </c>
       <c r="B150" t="s">
         <v>159</v>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="151" spans="1:11">
       <c r="A151">
-        <v>1715058000</v>
+        <v>1715047200</v>
       </c>
       <c r="B151" t="s">
         <v>160</v>
@@ -6579,7 +6579,7 @@
     </row>
     <row r="152" spans="1:11">
       <c r="A152">
-        <v>1715061600</v>
+        <v>1715050800</v>
       </c>
       <c r="B152" t="s">
         <v>161</v>
@@ -6605,7 +6605,7 @@
     </row>
     <row r="153" spans="1:11">
       <c r="A153">
-        <v>1715065200</v>
+        <v>1715054400</v>
       </c>
       <c r="B153" t="s">
         <v>162</v>
@@ -6631,7 +6631,7 @@
     </row>
     <row r="154" spans="1:11">
       <c r="A154">
-        <v>1715068800</v>
+        <v>1715058000</v>
       </c>
       <c r="B154" t="s">
         <v>163</v>
@@ -6657,7 +6657,7 @@
     </row>
     <row r="155" spans="1:11">
       <c r="A155">
-        <v>1715072400</v>
+        <v>1715061600</v>
       </c>
       <c r="B155" t="s">
         <v>164</v>
@@ -6683,7 +6683,7 @@
     </row>
     <row r="156" spans="1:11">
       <c r="A156">
-        <v>1715076000</v>
+        <v>1715065200</v>
       </c>
       <c r="B156" t="s">
         <v>165</v>
@@ -6709,7 +6709,7 @@
     </row>
     <row r="157" spans="1:11">
       <c r="A157">
-        <v>1715079600</v>
+        <v>1715068800</v>
       </c>
       <c r="B157" t="s">
         <v>166</v>
@@ -6735,7 +6735,7 @@
     </row>
     <row r="158" spans="1:11">
       <c r="A158">
-        <v>1715083200</v>
+        <v>1715072400</v>
       </c>
       <c r="B158" t="s">
         <v>167</v>
@@ -6761,7 +6761,7 @@
     </row>
     <row r="159" spans="1:11">
       <c r="A159">
-        <v>1715086800</v>
+        <v>1715076000</v>
       </c>
       <c r="B159" t="s">
         <v>168</v>
@@ -6787,7 +6787,7 @@
     </row>
     <row r="160" spans="1:11">
       <c r="A160">
-        <v>1715090400</v>
+        <v>1715079600</v>
       </c>
       <c r="B160" t="s">
         <v>169</v>
@@ -6813,7 +6813,7 @@
     </row>
     <row r="161" spans="1:11">
       <c r="A161">
-        <v>1715094000</v>
+        <v>1715083200</v>
       </c>
       <c r="B161" t="s">
         <v>170</v>
@@ -6839,7 +6839,7 @@
     </row>
     <row r="162" spans="1:11">
       <c r="A162">
-        <v>1715097600</v>
+        <v>1715086800</v>
       </c>
       <c r="B162" t="s">
         <v>171</v>
@@ -6865,7 +6865,7 @@
     </row>
     <row r="163" spans="1:11">
       <c r="A163">
-        <v>1715101200</v>
+        <v>1715090400</v>
       </c>
       <c r="B163" t="s">
         <v>172</v>
@@ -6891,7 +6891,7 @@
     </row>
     <row r="164" spans="1:11">
       <c r="A164">
-        <v>1715104800</v>
+        <v>1715094000</v>
       </c>
       <c r="B164" t="s">
         <v>173</v>
@@ -6917,7 +6917,7 @@
     </row>
     <row r="165" spans="1:11">
       <c r="A165">
-        <v>1715108400</v>
+        <v>1715097600</v>
       </c>
       <c r="B165" t="s">
         <v>174</v>
@@ -6943,7 +6943,7 @@
     </row>
     <row r="166" spans="1:11">
       <c r="A166">
-        <v>1715112000</v>
+        <v>1715101200</v>
       </c>
       <c r="B166" t="s">
         <v>175</v>
@@ -6969,7 +6969,7 @@
     </row>
     <row r="167" spans="1:11">
       <c r="A167">
-        <v>1715115600</v>
+        <v>1715104800</v>
       </c>
       <c r="B167" t="s">
         <v>176</v>
@@ -6995,7 +6995,7 @@
     </row>
     <row r="168" spans="1:11">
       <c r="A168">
-        <v>1715119200</v>
+        <v>1715108400</v>
       </c>
       <c r="B168" t="s">
         <v>177</v>
@@ -7021,7 +7021,7 @@
     </row>
     <row r="169" spans="1:11">
       <c r="A169">
-        <v>1715122800</v>
+        <v>1715112000</v>
       </c>
       <c r="B169" t="s">
         <v>178</v>
@@ -7047,7 +7047,7 @@
     </row>
     <row r="170" spans="1:11">
       <c r="A170">
-        <v>1715126400</v>
+        <v>1715115600</v>
       </c>
       <c r="B170" t="s">
         <v>179</v>
@@ -7073,7 +7073,7 @@
     </row>
     <row r="171" spans="1:11">
       <c r="A171">
-        <v>1715130000</v>
+        <v>1715119200</v>
       </c>
       <c r="B171" t="s">
         <v>180</v>
@@ -7099,7 +7099,7 @@
     </row>
     <row r="172" spans="1:11">
       <c r="A172">
-        <v>1715133600</v>
+        <v>1715122800</v>
       </c>
       <c r="B172" t="s">
         <v>181</v>
@@ -7125,7 +7125,7 @@
     </row>
     <row r="173" spans="1:11">
       <c r="A173">
-        <v>1715137200</v>
+        <v>1715126400</v>
       </c>
       <c r="B173" t="s">
         <v>182</v>
@@ -7151,7 +7151,7 @@
     </row>
     <row r="174" spans="1:11">
       <c r="A174">
-        <v>1715140800</v>
+        <v>1715130000</v>
       </c>
       <c r="B174" t="s">
         <v>183</v>
@@ -7177,7 +7177,7 @@
     </row>
     <row r="175" spans="1:11">
       <c r="A175">
-        <v>1715144400</v>
+        <v>1715133600</v>
       </c>
       <c r="B175" t="s">
         <v>184</v>
@@ -7203,7 +7203,7 @@
     </row>
     <row r="176" spans="1:11">
       <c r="A176">
-        <v>1715148000</v>
+        <v>1715137200</v>
       </c>
       <c r="B176" t="s">
         <v>185</v>
@@ -7229,7 +7229,7 @@
     </row>
     <row r="177" spans="1:11">
       <c r="A177">
-        <v>1715151600</v>
+        <v>1715140800</v>
       </c>
       <c r="B177" t="s">
         <v>186</v>
@@ -7255,7 +7255,7 @@
     </row>
     <row r="178" spans="1:11">
       <c r="A178">
-        <v>1715155200</v>
+        <v>1715144400</v>
       </c>
       <c r="B178" t="s">
         <v>187</v>
@@ -7281,7 +7281,7 @@
     </row>
     <row r="179" spans="1:11">
       <c r="A179">
-        <v>1715158800</v>
+        <v>1715148000</v>
       </c>
       <c r="B179" t="s">
         <v>188</v>
@@ -7307,7 +7307,7 @@
     </row>
     <row r="180" spans="1:11">
       <c r="A180">
-        <v>1715162400</v>
+        <v>1715151600</v>
       </c>
       <c r="B180" t="s">
         <v>189</v>
@@ -7333,7 +7333,7 @@
     </row>
     <row r="181" spans="1:11">
       <c r="A181">
-        <v>1715166000</v>
+        <v>1715155200</v>
       </c>
       <c r="B181" t="s">
         <v>190</v>
@@ -7359,7 +7359,7 @@
     </row>
     <row r="182" spans="1:11">
       <c r="A182">
-        <v>1715169600</v>
+        <v>1715158800</v>
       </c>
       <c r="B182" t="s">
         <v>191</v>
@@ -7385,7 +7385,7 @@
     </row>
     <row r="183" spans="1:11">
       <c r="A183">
-        <v>1715173200</v>
+        <v>1715162400</v>
       </c>
       <c r="B183" t="s">
         <v>192</v>
@@ -7411,7 +7411,7 @@
     </row>
     <row r="184" spans="1:11">
       <c r="A184">
-        <v>1715176800</v>
+        <v>1715166000</v>
       </c>
       <c r="B184" t="s">
         <v>193</v>
@@ -7437,7 +7437,7 @@
     </row>
     <row r="185" spans="1:11">
       <c r="A185">
-        <v>1715180400</v>
+        <v>1715169600</v>
       </c>
       <c r="B185" t="s">
         <v>194</v>
@@ -7463,7 +7463,7 @@
     </row>
     <row r="186" spans="1:11">
       <c r="A186">
-        <v>1715184000</v>
+        <v>1715173200</v>
       </c>
       <c r="B186" t="s">
         <v>195</v>
@@ -7489,7 +7489,7 @@
     </row>
     <row r="187" spans="1:11">
       <c r="A187">
-        <v>1715187600</v>
+        <v>1715176800</v>
       </c>
       <c r="B187" t="s">
         <v>196</v>
@@ -7515,7 +7515,7 @@
     </row>
     <row r="188" spans="1:11">
       <c r="A188">
-        <v>1715191200</v>
+        <v>1715180400</v>
       </c>
       <c r="B188" t="s">
         <v>197</v>
@@ -7541,7 +7541,7 @@
     </row>
     <row r="189" spans="1:11">
       <c r="A189">
-        <v>1715194800</v>
+        <v>1715184000</v>
       </c>
       <c r="B189" t="s">
         <v>198</v>
@@ -7567,7 +7567,7 @@
     </row>
     <row r="190" spans="1:11">
       <c r="A190">
-        <v>1715198400</v>
+        <v>1715187600</v>
       </c>
       <c r="B190" t="s">
         <v>199</v>
@@ -7593,7 +7593,7 @@
     </row>
     <row r="191" spans="1:11">
       <c r="A191">
-        <v>1715202000</v>
+        <v>1715191200</v>
       </c>
       <c r="B191" t="s">
         <v>200</v>
@@ -7619,7 +7619,7 @@
     </row>
     <row r="192" spans="1:11">
       <c r="A192">
-        <v>1715205600</v>
+        <v>1715194800</v>
       </c>
       <c r="B192" t="s">
         <v>201</v>
@@ -7645,7 +7645,7 @@
     </row>
     <row r="193" spans="1:11">
       <c r="A193">
-        <v>1715209200</v>
+        <v>1715198400</v>
       </c>
       <c r="B193" t="s">
         <v>202</v>
@@ -7671,7 +7671,7 @@
     </row>
     <row r="194" spans="1:11">
       <c r="A194">
-        <v>1715212800</v>
+        <v>1715202000</v>
       </c>
       <c r="B194" t="s">
         <v>203</v>
@@ -7697,7 +7697,7 @@
     </row>
     <row r="195" spans="1:11">
       <c r="A195">
-        <v>1715216400</v>
+        <v>1715205600</v>
       </c>
       <c r="B195" t="s">
         <v>204</v>
@@ -7723,7 +7723,7 @@
     </row>
     <row r="196" spans="1:11">
       <c r="A196">
-        <v>1715220000</v>
+        <v>1715209200</v>
       </c>
       <c r="B196" t="s">
         <v>205</v>
@@ -7749,7 +7749,7 @@
     </row>
     <row r="197" spans="1:11">
       <c r="A197">
-        <v>1715223600</v>
+        <v>1715212800</v>
       </c>
       <c r="B197" t="s">
         <v>206</v>
@@ -7775,7 +7775,7 @@
     </row>
     <row r="198" spans="1:11">
       <c r="A198">
-        <v>1715227200</v>
+        <v>1715216400</v>
       </c>
       <c r="B198" t="s">
         <v>207</v>
@@ -7801,7 +7801,7 @@
     </row>
     <row r="199" spans="1:11">
       <c r="A199">
-        <v>1715230800</v>
+        <v>1715220000</v>
       </c>
       <c r="B199" t="s">
         <v>208</v>
@@ -7827,7 +7827,7 @@
     </row>
     <row r="200" spans="1:11">
       <c r="A200">
-        <v>1715234400</v>
+        <v>1715223600</v>
       </c>
       <c r="B200" t="s">
         <v>209</v>
@@ -7853,7 +7853,7 @@
     </row>
     <row r="201" spans="1:11">
       <c r="A201">
-        <v>1715238000</v>
+        <v>1715227200</v>
       </c>
       <c r="B201" t="s">
         <v>210</v>
@@ -7879,7 +7879,7 @@
     </row>
     <row r="202" spans="1:11">
       <c r="A202">
-        <v>1715241600</v>
+        <v>1715230800</v>
       </c>
       <c r="B202" t="s">
         <v>211</v>
@@ -7905,7 +7905,7 @@
     </row>
     <row r="203" spans="1:11">
       <c r="A203">
-        <v>1715245200</v>
+        <v>1715234400</v>
       </c>
       <c r="B203" t="s">
         <v>212</v>
@@ -7931,7 +7931,7 @@
     </row>
     <row r="204" spans="1:11">
       <c r="A204">
-        <v>1715248800</v>
+        <v>1715238000</v>
       </c>
       <c r="B204" t="s">
         <v>213</v>
@@ -7957,7 +7957,7 @@
     </row>
     <row r="205" spans="1:11">
       <c r="A205">
-        <v>1715252400</v>
+        <v>1715241600</v>
       </c>
       <c r="B205" t="s">
         <v>214</v>
@@ -7983,7 +7983,7 @@
     </row>
     <row r="206" spans="1:11">
       <c r="A206">
-        <v>1715256000</v>
+        <v>1715245200</v>
       </c>
       <c r="B206" t="s">
         <v>215</v>
@@ -8009,7 +8009,7 @@
     </row>
     <row r="207" spans="1:11">
       <c r="A207">
-        <v>1715259600</v>
+        <v>1715248800</v>
       </c>
       <c r="B207" t="s">
         <v>216</v>
@@ -8035,7 +8035,7 @@
     </row>
     <row r="208" spans="1:11">
       <c r="A208">
-        <v>1715263200</v>
+        <v>1715252400</v>
       </c>
       <c r="B208" t="s">
         <v>217</v>
@@ -8061,7 +8061,7 @@
     </row>
     <row r="209" spans="1:11">
       <c r="A209">
-        <v>1715266800</v>
+        <v>1715256000</v>
       </c>
       <c r="B209" t="s">
         <v>218</v>
@@ -8087,7 +8087,7 @@
     </row>
     <row r="210" spans="1:11">
       <c r="A210">
-        <v>1715270400</v>
+        <v>1715259600</v>
       </c>
       <c r="B210" t="s">
         <v>219</v>
@@ -8113,7 +8113,7 @@
     </row>
     <row r="211" spans="1:11">
       <c r="A211">
-        <v>1715274000</v>
+        <v>1715263200</v>
       </c>
       <c r="B211" t="s">
         <v>220</v>
@@ -8139,7 +8139,7 @@
     </row>
     <row r="212" spans="1:11">
       <c r="A212">
-        <v>1715277600</v>
+        <v>1715266800</v>
       </c>
       <c r="B212" t="s">
         <v>221</v>
@@ -8165,7 +8165,7 @@
     </row>
     <row r="213" spans="1:11">
       <c r="A213">
-        <v>1715281200</v>
+        <v>1715270400</v>
       </c>
       <c r="B213" t="s">
         <v>222</v>
@@ -8191,7 +8191,7 @@
     </row>
     <row r="214" spans="1:11">
       <c r="A214">
-        <v>1715284800</v>
+        <v>1715274000</v>
       </c>
       <c r="B214" t="s">
         <v>223</v>
@@ -8217,7 +8217,7 @@
     </row>
     <row r="215" spans="1:11">
       <c r="A215">
-        <v>1715288400</v>
+        <v>1715277600</v>
       </c>
       <c r="B215" t="s">
         <v>224</v>
@@ -8243,7 +8243,7 @@
     </row>
     <row r="216" spans="1:11">
       <c r="A216">
-        <v>1715292000</v>
+        <v>1715281200</v>
       </c>
       <c r="B216" t="s">
         <v>225</v>
@@ -8269,7 +8269,7 @@
     </row>
     <row r="217" spans="1:11">
       <c r="A217">
-        <v>1715295600</v>
+        <v>1715284800</v>
       </c>
       <c r="B217" t="s">
         <v>226</v>
@@ -8295,7 +8295,7 @@
     </row>
     <row r="218" spans="1:11">
       <c r="A218">
-        <v>1715299200</v>
+        <v>1715288400</v>
       </c>
       <c r="B218" t="s">
         <v>227</v>
@@ -8321,7 +8321,7 @@
     </row>
     <row r="219" spans="1:11">
       <c r="A219">
-        <v>1715302800</v>
+        <v>1715292000</v>
       </c>
       <c r="B219" t="s">
         <v>228</v>
@@ -8347,7 +8347,7 @@
     </row>
     <row r="220" spans="1:11">
       <c r="A220">
-        <v>1715306400</v>
+        <v>1715295600</v>
       </c>
       <c r="B220" t="s">
         <v>229</v>
@@ -8373,7 +8373,7 @@
     </row>
     <row r="221" spans="1:11">
       <c r="A221">
-        <v>1715310000</v>
+        <v>1715299200</v>
       </c>
       <c r="B221" t="s">
         <v>230</v>
@@ -8399,7 +8399,7 @@
     </row>
     <row r="222" spans="1:11">
       <c r="A222">
-        <v>1715313600</v>
+        <v>1715302800</v>
       </c>
       <c r="B222" t="s">
         <v>231</v>
@@ -8425,7 +8425,7 @@
     </row>
     <row r="223" spans="1:11">
       <c r="A223">
-        <v>1715317200</v>
+        <v>1715306400</v>
       </c>
       <c r="B223" t="s">
         <v>232</v>
@@ -8451,7 +8451,7 @@
     </row>
     <row r="224" spans="1:11">
       <c r="A224">
-        <v>1715320800</v>
+        <v>1715310000</v>
       </c>
       <c r="B224" t="s">
         <v>233</v>
@@ -8477,7 +8477,7 @@
     </row>
     <row r="225" spans="1:11">
       <c r="A225">
-        <v>1715324400</v>
+        <v>1715313600</v>
       </c>
       <c r="B225" t="s">
         <v>234</v>
@@ -8503,7 +8503,7 @@
     </row>
     <row r="226" spans="1:11">
       <c r="A226">
-        <v>1715328000</v>
+        <v>1715317200</v>
       </c>
       <c r="B226" t="s">
         <v>235</v>
@@ -8529,7 +8529,7 @@
     </row>
     <row r="227" spans="1:11">
       <c r="A227">
-        <v>1715331600</v>
+        <v>1715320800</v>
       </c>
       <c r="B227" t="s">
         <v>236</v>
@@ -8555,7 +8555,7 @@
     </row>
     <row r="228" spans="1:11">
       <c r="A228">
-        <v>1715335200</v>
+        <v>1715324400</v>
       </c>
       <c r="B228" t="s">
         <v>237</v>
@@ -8581,7 +8581,7 @@
     </row>
     <row r="229" spans="1:11">
       <c r="A229">
-        <v>1715338800</v>
+        <v>1715328000</v>
       </c>
       <c r="B229" t="s">
         <v>238</v>
@@ -8607,7 +8607,7 @@
     </row>
     <row r="230" spans="1:11">
       <c r="A230">
-        <v>1715342400</v>
+        <v>1715331600</v>
       </c>
       <c r="B230" t="s">
         <v>239</v>
@@ -8633,7 +8633,7 @@
     </row>
     <row r="231" spans="1:11">
       <c r="A231">
-        <v>1715346000</v>
+        <v>1715335200</v>
       </c>
       <c r="B231" t="s">
         <v>240</v>
@@ -8659,7 +8659,7 @@
     </row>
     <row r="232" spans="1:11">
       <c r="A232">
-        <v>1715349600</v>
+        <v>1715338800</v>
       </c>
       <c r="B232" t="s">
         <v>241</v>
@@ -8685,7 +8685,7 @@
     </row>
     <row r="233" spans="1:11">
       <c r="A233">
-        <v>1715353200</v>
+        <v>1715342400</v>
       </c>
       <c r="B233" t="s">
         <v>242</v>
@@ -8711,7 +8711,7 @@
     </row>
     <row r="234" spans="1:11">
       <c r="A234">
-        <v>1715356800</v>
+        <v>1715346000</v>
       </c>
       <c r="B234" t="s">
         <v>243</v>
@@ -8737,7 +8737,7 @@
     </row>
     <row r="235" spans="1:11">
       <c r="A235">
-        <v>1715360400</v>
+        <v>1715349600</v>
       </c>
       <c r="B235" t="s">
         <v>244</v>
@@ -8763,7 +8763,7 @@
     </row>
     <row r="236" spans="1:11">
       <c r="A236">
-        <v>1715364000</v>
+        <v>1715353200</v>
       </c>
       <c r="B236" t="s">
         <v>245</v>
@@ -8789,7 +8789,7 @@
     </row>
     <row r="237" spans="1:11">
       <c r="A237">
-        <v>1715367600</v>
+        <v>1715356800</v>
       </c>
       <c r="B237" t="s">
         <v>246</v>
@@ -8815,7 +8815,7 @@
     </row>
     <row r="238" spans="1:11">
       <c r="A238">
-        <v>1715371200</v>
+        <v>1715360400</v>
       </c>
       <c r="B238" t="s">
         <v>247</v>
@@ -8841,7 +8841,7 @@
     </row>
     <row r="239" spans="1:11">
       <c r="A239">
-        <v>1715374800</v>
+        <v>1715364000</v>
       </c>
       <c r="B239" t="s">
         <v>248</v>
@@ -8867,7 +8867,7 @@
     </row>
     <row r="240" spans="1:11">
       <c r="A240">
-        <v>1715378400</v>
+        <v>1715367600</v>
       </c>
       <c r="B240" t="s">
         <v>249</v>
@@ -8893,7 +8893,7 @@
     </row>
     <row r="241" spans="1:11">
       <c r="A241">
-        <v>1715382000</v>
+        <v>1715371200</v>
       </c>
       <c r="B241" t="s">
         <v>250</v>
@@ -8919,7 +8919,7 @@
     </row>
     <row r="242" spans="1:11">
       <c r="A242">
-        <v>1715385600</v>
+        <v>1715374800</v>
       </c>
       <c r="B242" t="s">
         <v>251</v>
@@ -8945,7 +8945,7 @@
     </row>
     <row r="243" spans="1:11">
       <c r="A243">
-        <v>1715389200</v>
+        <v>1715378400</v>
       </c>
       <c r="B243" t="s">
         <v>252</v>
@@ -8971,7 +8971,7 @@
     </row>
     <row r="244" spans="1:11">
       <c r="A244">
-        <v>1715392800</v>
+        <v>1715382000</v>
       </c>
       <c r="B244" t="s">
         <v>253</v>
@@ -8997,7 +8997,7 @@
     </row>
     <row r="245" spans="1:11">
       <c r="A245">
-        <v>1715396400</v>
+        <v>1715385600</v>
       </c>
       <c r="B245" t="s">
         <v>254</v>
@@ -9023,7 +9023,7 @@
     </row>
     <row r="246" spans="1:11">
       <c r="A246">
-        <v>1715400000</v>
+        <v>1715389200</v>
       </c>
       <c r="B246" t="s">
         <v>255</v>
@@ -9049,7 +9049,7 @@
     </row>
     <row r="247" spans="1:11">
       <c r="A247">
-        <v>1715403600</v>
+        <v>1715392800</v>
       </c>
       <c r="B247" t="s">
         <v>256</v>
@@ -9075,7 +9075,7 @@
     </row>
     <row r="248" spans="1:11">
       <c r="A248">
-        <v>1715407200</v>
+        <v>1715396400</v>
       </c>
       <c r="B248" t="s">
         <v>257</v>
@@ -9101,7 +9101,7 @@
     </row>
     <row r="249" spans="1:11">
       <c r="A249">
-        <v>1715410800</v>
+        <v>1715400000</v>
       </c>
       <c r="B249" t="s">
         <v>258</v>
@@ -9127,7 +9127,7 @@
     </row>
     <row r="250" spans="1:11">
       <c r="A250">
-        <v>1715414400</v>
+        <v>1715403600</v>
       </c>
       <c r="B250" t="s">
         <v>259</v>
@@ -9153,7 +9153,7 @@
     </row>
     <row r="251" spans="1:11">
       <c r="A251">
-        <v>1715418000</v>
+        <v>1715407200</v>
       </c>
       <c r="B251" t="s">
         <v>260</v>
@@ -9179,7 +9179,7 @@
     </row>
     <row r="252" spans="1:11">
       <c r="A252">
-        <v>1715421600</v>
+        <v>1715410800</v>
       </c>
       <c r="B252" t="s">
         <v>261</v>
@@ -9205,7 +9205,7 @@
     </row>
     <row r="253" spans="1:11">
       <c r="A253">
-        <v>1715425200</v>
+        <v>1715414400</v>
       </c>
       <c r="B253" t="s">
         <v>262</v>
@@ -9231,7 +9231,7 @@
     </row>
     <row r="254" spans="1:11">
       <c r="A254">
-        <v>1715428800</v>
+        <v>1715418000</v>
       </c>
       <c r="B254" t="s">
         <v>263</v>
@@ -9257,7 +9257,7 @@
     </row>
     <row r="255" spans="1:11">
       <c r="A255">
-        <v>1715432400</v>
+        <v>1715421600</v>
       </c>
       <c r="B255" t="s">
         <v>264</v>
@@ -9283,7 +9283,7 @@
     </row>
     <row r="256" spans="1:11">
       <c r="A256">
-        <v>1715436000</v>
+        <v>1715425200</v>
       </c>
       <c r="B256" t="s">
         <v>265</v>
@@ -9309,7 +9309,7 @@
     </row>
     <row r="257" spans="1:11">
       <c r="A257">
-        <v>1715439600</v>
+        <v>1715428800</v>
       </c>
       <c r="B257" t="s">
         <v>266</v>
@@ -9335,7 +9335,7 @@
     </row>
     <row r="258" spans="1:11">
       <c r="A258">
-        <v>1715443200</v>
+        <v>1715432400</v>
       </c>
       <c r="B258" t="s">
         <v>267</v>
@@ -9361,7 +9361,7 @@
     </row>
     <row r="259" spans="1:11">
       <c r="A259">
-        <v>1715446800</v>
+        <v>1715436000</v>
       </c>
       <c r="B259" t="s">
         <v>268</v>
@@ -9387,7 +9387,7 @@
     </row>
     <row r="260" spans="1:11">
       <c r="A260">
-        <v>1715450400</v>
+        <v>1715439600</v>
       </c>
       <c r="B260" t="s">
         <v>269</v>
@@ -9413,7 +9413,7 @@
     </row>
     <row r="261" spans="1:11">
       <c r="A261">
-        <v>1715454000</v>
+        <v>1715443200</v>
       </c>
       <c r="B261" t="s">
         <v>270</v>
@@ -9439,7 +9439,7 @@
     </row>
     <row r="262" spans="1:11">
       <c r="A262">
-        <v>1715457600</v>
+        <v>1715446800</v>
       </c>
       <c r="B262" t="s">
         <v>271</v>
@@ -9465,7 +9465,7 @@
     </row>
     <row r="263" spans="1:11">
       <c r="A263">
-        <v>1715461200</v>
+        <v>1715450400</v>
       </c>
       <c r="B263" t="s">
         <v>272</v>
@@ -9491,7 +9491,7 @@
     </row>
     <row r="264" spans="1:11">
       <c r="A264">
-        <v>1715464800</v>
+        <v>1715454000</v>
       </c>
       <c r="B264" t="s">
         <v>273</v>
@@ -9517,7 +9517,7 @@
     </row>
     <row r="265" spans="1:11">
       <c r="A265">
-        <v>1715468400</v>
+        <v>1715457600</v>
       </c>
       <c r="B265" t="s">
         <v>274</v>
@@ -9543,7 +9543,7 @@
     </row>
     <row r="266" spans="1:11">
       <c r="A266">
-        <v>1715472000</v>
+        <v>1715461200</v>
       </c>
       <c r="B266" t="s">
         <v>275</v>
@@ -9569,7 +9569,7 @@
     </row>
     <row r="267" spans="1:11">
       <c r="A267">
-        <v>1715475600</v>
+        <v>1715464800</v>
       </c>
       <c r="B267" t="s">
         <v>276</v>
@@ -9595,7 +9595,7 @@
     </row>
     <row r="268" spans="1:11">
       <c r="A268">
-        <v>1715479200</v>
+        <v>1715468400</v>
       </c>
       <c r="B268" t="s">
         <v>277</v>
@@ -9621,7 +9621,7 @@
     </row>
     <row r="269" spans="1:11">
       <c r="A269">
-        <v>1715482800</v>
+        <v>1715472000</v>
       </c>
       <c r="B269" t="s">
         <v>278</v>
@@ -9647,7 +9647,7 @@
     </row>
     <row r="270" spans="1:11">
       <c r="A270">
-        <v>1715486400</v>
+        <v>1715475600</v>
       </c>
       <c r="B270" t="s">
         <v>279</v>
@@ -9673,7 +9673,7 @@
     </row>
     <row r="271" spans="1:11">
       <c r="A271">
-        <v>1715490000</v>
+        <v>1715479200</v>
       </c>
       <c r="B271" t="s">
         <v>280</v>
@@ -9699,7 +9699,7 @@
     </row>
     <row r="272" spans="1:11">
       <c r="A272">
-        <v>1715493600</v>
+        <v>1715482800</v>
       </c>
       <c r="B272" t="s">
         <v>281</v>
@@ -9725,7 +9725,7 @@
     </row>
     <row r="273" spans="1:11">
       <c r="A273">
-        <v>1715497200</v>
+        <v>1715486400</v>
       </c>
       <c r="B273" t="s">
         <v>282</v>
@@ -9751,7 +9751,7 @@
     </row>
     <row r="274" spans="1:11">
       <c r="A274">
-        <v>1715500800</v>
+        <v>1715490000</v>
       </c>
       <c r="B274" t="s">
         <v>283</v>
@@ -9777,7 +9777,7 @@
     </row>
     <row r="275" spans="1:11">
       <c r="A275">
-        <v>1715504400</v>
+        <v>1715493600</v>
       </c>
       <c r="B275" t="s">
         <v>284</v>
@@ -9803,7 +9803,7 @@
     </row>
     <row r="276" spans="1:11">
       <c r="A276">
-        <v>1715508000</v>
+        <v>1715497200</v>
       </c>
       <c r="B276" t="s">
         <v>285</v>
@@ -9829,7 +9829,7 @@
     </row>
     <row r="277" spans="1:11">
       <c r="A277">
-        <v>1715511600</v>
+        <v>1715500800</v>
       </c>
       <c r="B277" t="s">
         <v>286</v>
@@ -9855,7 +9855,7 @@
     </row>
     <row r="278" spans="1:11">
       <c r="A278">
-        <v>1715515200</v>
+        <v>1715504400</v>
       </c>
       <c r="B278" t="s">
         <v>287</v>
@@ -9881,7 +9881,7 @@
     </row>
     <row r="279" spans="1:11">
       <c r="A279">
-        <v>1715518800</v>
+        <v>1715508000</v>
       </c>
       <c r="B279" t="s">
         <v>288</v>
@@ -9907,7 +9907,7 @@
     </row>
     <row r="280" spans="1:11">
       <c r="A280">
-        <v>1715522400</v>
+        <v>1715511600</v>
       </c>
       <c r="B280" t="s">
         <v>289</v>
@@ -9933,7 +9933,7 @@
     </row>
     <row r="281" spans="1:11">
       <c r="A281">
-        <v>1715526000</v>
+        <v>1715515200</v>
       </c>
       <c r="B281" t="s">
         <v>290</v>
@@ -9959,7 +9959,7 @@
     </row>
     <row r="282" spans="1:11">
       <c r="A282">
-        <v>1715529600</v>
+        <v>1715518800</v>
       </c>
       <c r="B282" t="s">
         <v>291</v>
@@ -9985,7 +9985,7 @@
     </row>
     <row r="283" spans="1:11">
       <c r="A283">
-        <v>1715533200</v>
+        <v>1715522400</v>
       </c>
       <c r="B283" t="s">
         <v>292</v>
@@ -10011,7 +10011,7 @@
     </row>
     <row r="284" spans="1:11">
       <c r="A284">
-        <v>1715536800</v>
+        <v>1715526000</v>
       </c>
       <c r="B284" t="s">
         <v>293</v>
@@ -10037,7 +10037,7 @@
     </row>
     <row r="285" spans="1:11">
       <c r="A285">
-        <v>1715540400</v>
+        <v>1715529600</v>
       </c>
       <c r="B285" t="s">
         <v>294</v>
@@ -10063,7 +10063,7 @@
     </row>
     <row r="286" spans="1:11">
       <c r="A286">
-        <v>1715544000</v>
+        <v>1715533200</v>
       </c>
       <c r="B286" t="s">
         <v>295</v>
@@ -10089,7 +10089,7 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287">
-        <v>1715547600</v>
+        <v>1715536800</v>
       </c>
       <c r="B287" t="s">
         <v>296</v>
@@ -10115,7 +10115,7 @@
     </row>
     <row r="288" spans="1:11">
       <c r="A288">
-        <v>1715551200</v>
+        <v>1715540400</v>
       </c>
       <c r="B288" t="s">
         <v>297</v>
@@ -10141,7 +10141,7 @@
     </row>
     <row r="289" spans="1:11">
       <c r="A289">
-        <v>1715554800</v>
+        <v>1715544000</v>
       </c>
       <c r="B289" t="s">
         <v>298</v>
@@ -10167,7 +10167,7 @@
     </row>
     <row r="290" spans="1:11">
       <c r="A290">
-        <v>1715558400</v>
+        <v>1715547600</v>
       </c>
       <c r="B290" t="s">
         <v>299</v>
@@ -10193,7 +10193,7 @@
     </row>
     <row r="291" spans="1:11">
       <c r="A291">
-        <v>1715562000</v>
+        <v>1715551200</v>
       </c>
       <c r="B291" t="s">
         <v>300</v>
@@ -10219,7 +10219,7 @@
     </row>
     <row r="292" spans="1:11">
       <c r="A292">
-        <v>1715565600</v>
+        <v>1715554800</v>
       </c>
       <c r="B292" t="s">
         <v>301</v>
@@ -10245,7 +10245,7 @@
     </row>
     <row r="293" spans="1:11">
       <c r="A293">
-        <v>1715569200</v>
+        <v>1715558400</v>
       </c>
       <c r="B293" t="s">
         <v>302</v>
@@ -10271,7 +10271,7 @@
     </row>
     <row r="294" spans="1:11">
       <c r="A294">
-        <v>1715572800</v>
+        <v>1715562000</v>
       </c>
       <c r="B294" t="s">
         <v>303</v>
@@ -10297,7 +10297,7 @@
     </row>
     <row r="295" spans="1:11">
       <c r="A295">
-        <v>1715576400</v>
+        <v>1715565600</v>
       </c>
       <c r="B295" t="s">
         <v>304</v>
@@ -10323,7 +10323,7 @@
     </row>
     <row r="296" spans="1:11">
       <c r="A296">
-        <v>1715580000</v>
+        <v>1715569200</v>
       </c>
       <c r="B296" t="s">
         <v>305</v>
@@ -10349,7 +10349,7 @@
     </row>
     <row r="297" spans="1:11">
       <c r="A297">
-        <v>1715583600</v>
+        <v>1715572800</v>
       </c>
       <c r="B297" t="s">
         <v>306</v>
@@ -10375,7 +10375,7 @@
     </row>
     <row r="298" spans="1:11">
       <c r="A298">
-        <v>1715587200</v>
+        <v>1715576400</v>
       </c>
       <c r="B298" t="s">
         <v>307</v>
@@ -10401,7 +10401,7 @@
     </row>
     <row r="299" spans="1:11">
       <c r="A299">
-        <v>1715590800</v>
+        <v>1715580000</v>
       </c>
       <c r="B299" t="s">
         <v>308</v>
@@ -10427,7 +10427,7 @@
     </row>
     <row r="300" spans="1:11">
       <c r="A300">
-        <v>1715594400</v>
+        <v>1715583600</v>
       </c>
       <c r="B300" t="s">
         <v>309</v>
@@ -10453,7 +10453,7 @@
     </row>
     <row r="301" spans="1:11">
       <c r="A301">
-        <v>1715598000</v>
+        <v>1715587200</v>
       </c>
       <c r="B301" t="s">
         <v>310</v>
@@ -10479,7 +10479,7 @@
     </row>
     <row r="302" spans="1:11">
       <c r="A302">
-        <v>1715601600</v>
+        <v>1715590800</v>
       </c>
       <c r="B302" t="s">
         <v>311</v>
@@ -10505,7 +10505,7 @@
     </row>
     <row r="303" spans="1:11">
       <c r="A303">
-        <v>1715605200</v>
+        <v>1715594400</v>
       </c>
       <c r="B303" t="s">
         <v>312</v>
@@ -10531,7 +10531,7 @@
     </row>
     <row r="304" spans="1:11">
       <c r="A304">
-        <v>1715608800</v>
+        <v>1715598000</v>
       </c>
       <c r="B304" t="s">
         <v>313</v>
@@ -10557,7 +10557,7 @@
     </row>
     <row r="305" spans="1:11">
       <c r="A305">
-        <v>1715612400</v>
+        <v>1715601600</v>
       </c>
       <c r="B305" t="s">
         <v>314</v>
@@ -10583,7 +10583,7 @@
     </row>
     <row r="306" spans="1:11">
       <c r="A306">
-        <v>1715616000</v>
+        <v>1715605200</v>
       </c>
       <c r="B306" t="s">
         <v>315</v>
@@ -10609,7 +10609,7 @@
     </row>
     <row r="307" spans="1:11">
       <c r="A307">
-        <v>1715619600</v>
+        <v>1715608800</v>
       </c>
       <c r="B307" t="s">
         <v>316</v>
@@ -10635,7 +10635,7 @@
     </row>
     <row r="308" spans="1:11">
       <c r="A308">
-        <v>1715623200</v>
+        <v>1715612400</v>
       </c>
       <c r="B308" t="s">
         <v>317</v>
@@ -10661,7 +10661,7 @@
     </row>
     <row r="309" spans="1:11">
       <c r="A309">
-        <v>1715626800</v>
+        <v>1715616000</v>
       </c>
       <c r="B309" t="s">
         <v>318</v>
@@ -10687,7 +10687,7 @@
     </row>
     <row r="310" spans="1:11">
       <c r="A310">
-        <v>1715630400</v>
+        <v>1715619600</v>
       </c>
       <c r="B310" t="s">
         <v>319</v>
@@ -10713,7 +10713,7 @@
     </row>
     <row r="311" spans="1:11">
       <c r="A311">
-        <v>1715634000</v>
+        <v>1715623200</v>
       </c>
       <c r="B311" t="s">
         <v>320</v>
@@ -10739,7 +10739,7 @@
     </row>
     <row r="312" spans="1:11">
       <c r="A312">
-        <v>1715637600</v>
+        <v>1715626800</v>
       </c>
       <c r="B312" t="s">
         <v>321</v>
@@ -10765,7 +10765,7 @@
     </row>
     <row r="313" spans="1:11">
       <c r="A313">
-        <v>1715641200</v>
+        <v>1715630400</v>
       </c>
       <c r="B313" t="s">
         <v>322</v>
@@ -10791,7 +10791,7 @@
     </row>
     <row r="314" spans="1:11">
       <c r="A314">
-        <v>1715644800</v>
+        <v>1715634000</v>
       </c>
       <c r="B314" t="s">
         <v>323</v>
@@ -10817,7 +10817,7 @@
     </row>
     <row r="315" spans="1:11">
       <c r="A315">
-        <v>1715648400</v>
+        <v>1715637600</v>
       </c>
       <c r="B315" t="s">
         <v>324</v>
@@ -10843,7 +10843,7 @@
     </row>
     <row r="316" spans="1:11">
       <c r="A316">
-        <v>1715652000</v>
+        <v>1715641200</v>
       </c>
       <c r="B316" t="s">
         <v>325</v>
@@ -10869,7 +10869,7 @@
     </row>
     <row r="317" spans="1:11">
       <c r="A317">
-        <v>1715655600</v>
+        <v>1715644800</v>
       </c>
       <c r="B317" t="s">
         <v>326</v>
@@ -10895,7 +10895,7 @@
     </row>
     <row r="318" spans="1:11">
       <c r="A318">
-        <v>1715659200</v>
+        <v>1715648400</v>
       </c>
       <c r="B318" t="s">
         <v>327</v>
@@ -10921,7 +10921,7 @@
     </row>
     <row r="319" spans="1:11">
       <c r="A319">
-        <v>1715662800</v>
+        <v>1715652000</v>
       </c>
       <c r="B319" t="s">
         <v>328</v>
@@ -10947,7 +10947,7 @@
     </row>
     <row r="320" spans="1:11">
       <c r="A320">
-        <v>1715666400</v>
+        <v>1715655600</v>
       </c>
       <c r="B320" t="s">
         <v>329</v>
@@ -10973,7 +10973,7 @@
     </row>
     <row r="321" spans="1:11">
       <c r="A321">
-        <v>1715670000</v>
+        <v>1715659200</v>
       </c>
       <c r="B321" t="s">
         <v>330</v>
@@ -10999,7 +10999,7 @@
     </row>
     <row r="322" spans="1:11">
       <c r="A322">
-        <v>1715673600</v>
+        <v>1715662800</v>
       </c>
       <c r="B322" t="s">
         <v>331</v>
@@ -11025,7 +11025,7 @@
     </row>
     <row r="323" spans="1:11">
       <c r="A323">
-        <v>1715677200</v>
+        <v>1715666400</v>
       </c>
       <c r="B323" t="s">
         <v>332</v>
@@ -11051,7 +11051,7 @@
     </row>
     <row r="324" spans="1:11">
       <c r="A324">
-        <v>1715680800</v>
+        <v>1715670000</v>
       </c>
       <c r="B324" t="s">
         <v>333</v>
@@ -11077,7 +11077,7 @@
     </row>
     <row r="325" spans="1:11">
       <c r="A325">
-        <v>1715684400</v>
+        <v>1715673600</v>
       </c>
       <c r="B325" t="s">
         <v>334</v>
@@ -11103,7 +11103,7 @@
     </row>
     <row r="326" spans="1:11">
       <c r="A326">
-        <v>1715688000</v>
+        <v>1715677200</v>
       </c>
       <c r="B326" t="s">
         <v>335</v>
@@ -11129,7 +11129,7 @@
     </row>
     <row r="327" spans="1:11">
       <c r="A327">
-        <v>1715691600</v>
+        <v>1715680800</v>
       </c>
       <c r="B327" t="s">
         <v>336</v>
@@ -11155,7 +11155,7 @@
     </row>
     <row r="328" spans="1:11">
       <c r="A328">
-        <v>1715695200</v>
+        <v>1715684400</v>
       </c>
       <c r="B328" t="s">
         <v>337</v>
@@ -11181,7 +11181,7 @@
     </row>
     <row r="329" spans="1:11">
       <c r="A329">
-        <v>1715698800</v>
+        <v>1715688000</v>
       </c>
       <c r="B329" t="s">
         <v>338</v>
@@ -11207,7 +11207,7 @@
     </row>
     <row r="330" spans="1:11">
       <c r="A330">
-        <v>1715702400</v>
+        <v>1715691600</v>
       </c>
       <c r="B330" t="s">
         <v>339</v>
@@ -11233,7 +11233,7 @@
     </row>
     <row r="331" spans="1:11">
       <c r="A331">
-        <v>1715706000</v>
+        <v>1715695200</v>
       </c>
       <c r="B331" t="s">
         <v>340</v>
@@ -11259,7 +11259,7 @@
     </row>
     <row r="332" spans="1:11">
       <c r="A332">
-        <v>1715709600</v>
+        <v>1715698800</v>
       </c>
       <c r="B332" t="s">
         <v>341</v>
@@ -11285,7 +11285,7 @@
     </row>
     <row r="333" spans="1:11">
       <c r="A333">
-        <v>1715713200</v>
+        <v>1715702400</v>
       </c>
       <c r="B333" t="s">
         <v>342</v>
@@ -11311,7 +11311,7 @@
     </row>
     <row r="334" spans="1:11">
       <c r="A334">
-        <v>1715716800</v>
+        <v>1715706000</v>
       </c>
       <c r="B334" t="s">
         <v>343</v>
@@ -11337,7 +11337,7 @@
     </row>
     <row r="335" spans="1:11">
       <c r="A335">
-        <v>1715720400</v>
+        <v>1715709600</v>
       </c>
       <c r="B335" t="s">
         <v>344</v>
@@ -11363,7 +11363,7 @@
     </row>
     <row r="336" spans="1:11">
       <c r="A336">
-        <v>1715724000</v>
+        <v>1715713200</v>
       </c>
       <c r="B336" t="s">
         <v>345</v>
@@ -11389,7 +11389,7 @@
     </row>
     <row r="337" spans="1:11">
       <c r="A337">
-        <v>1715727600</v>
+        <v>1715716800</v>
       </c>
       <c r="B337" t="s">
         <v>346</v>
@@ -11415,7 +11415,7 @@
     </row>
     <row r="338" spans="1:11">
       <c r="A338">
-        <v>1715731200</v>
+        <v>1715720400</v>
       </c>
       <c r="B338" t="s">
         <v>347</v>
@@ -11441,7 +11441,7 @@
     </row>
     <row r="339" spans="1:11">
       <c r="A339">
-        <v>1715734800</v>
+        <v>1715724000</v>
       </c>
       <c r="B339" t="s">
         <v>348</v>
@@ -11467,7 +11467,7 @@
     </row>
     <row r="340" spans="1:11">
       <c r="A340">
-        <v>1715738400</v>
+        <v>1715727600</v>
       </c>
       <c r="B340" t="s">
         <v>349</v>
@@ -11493,7 +11493,7 @@
     </row>
     <row r="341" spans="1:11">
       <c r="A341">
-        <v>1715742000</v>
+        <v>1715731200</v>
       </c>
       <c r="B341" t="s">
         <v>350</v>
@@ -11519,7 +11519,7 @@
     </row>
     <row r="342" spans="1:11">
       <c r="A342">
-        <v>1715745600</v>
+        <v>1715734800</v>
       </c>
       <c r="B342" t="s">
         <v>351</v>
@@ -11545,7 +11545,7 @@
     </row>
     <row r="343" spans="1:11">
       <c r="A343">
-        <v>1715749200</v>
+        <v>1715738400</v>
       </c>
       <c r="B343" t="s">
         <v>352</v>
@@ -11571,7 +11571,7 @@
     </row>
     <row r="344" spans="1:11">
       <c r="A344">
-        <v>1715752800</v>
+        <v>1715742000</v>
       </c>
       <c r="B344" t="s">
         <v>353</v>
@@ -11597,7 +11597,7 @@
     </row>
     <row r="345" spans="1:11">
       <c r="A345">
-        <v>1715756400</v>
+        <v>1715745600</v>
       </c>
       <c r="B345" t="s">
         <v>354</v>
@@ -11623,7 +11623,7 @@
     </row>
     <row r="346" spans="1:11">
       <c r="A346">
-        <v>1715760000</v>
+        <v>1715749200</v>
       </c>
       <c r="B346" t="s">
         <v>355</v>
@@ -11649,7 +11649,7 @@
     </row>
     <row r="347" spans="1:11">
       <c r="A347">
-        <v>1715763600</v>
+        <v>1715752800</v>
       </c>
       <c r="B347" t="s">
         <v>356</v>
@@ -11675,7 +11675,7 @@
     </row>
     <row r="348" spans="1:11">
       <c r="A348">
-        <v>1715767200</v>
+        <v>1715756400</v>
       </c>
       <c r="B348" t="s">
         <v>357</v>
@@ -11701,7 +11701,7 @@
     </row>
     <row r="349" spans="1:11">
       <c r="A349">
-        <v>1715770800</v>
+        <v>1715760000</v>
       </c>
       <c r="B349" t="s">
         <v>358</v>
@@ -11727,7 +11727,7 @@
     </row>
     <row r="350" spans="1:11">
       <c r="A350">
-        <v>1715774400</v>
+        <v>1715763600</v>
       </c>
       <c r="B350" t="s">
         <v>359</v>
@@ -11753,7 +11753,7 @@
     </row>
     <row r="351" spans="1:11">
       <c r="A351">
-        <v>1715778000</v>
+        <v>1715767200</v>
       </c>
       <c r="B351" t="s">
         <v>360</v>
@@ -11779,7 +11779,7 @@
     </row>
     <row r="352" spans="1:11">
       <c r="A352">
-        <v>1715781600</v>
+        <v>1715770800</v>
       </c>
       <c r="B352" t="s">
         <v>361</v>
@@ -11805,7 +11805,7 @@
     </row>
     <row r="353" spans="1:11">
       <c r="A353">
-        <v>1715785200</v>
+        <v>1715774400</v>
       </c>
       <c r="B353" t="s">
         <v>362</v>
@@ -11831,7 +11831,7 @@
     </row>
     <row r="354" spans="1:11">
       <c r="A354">
-        <v>1715788800</v>
+        <v>1715778000</v>
       </c>
       <c r="B354" t="s">
         <v>363</v>
@@ -11857,7 +11857,7 @@
     </row>
     <row r="355" spans="1:11">
       <c r="A355">
-        <v>1715792400</v>
+        <v>1715781600</v>
       </c>
       <c r="B355" t="s">
         <v>364</v>
@@ -11883,7 +11883,7 @@
     </row>
     <row r="356" spans="1:11">
       <c r="A356">
-        <v>1715796000</v>
+        <v>1715785200</v>
       </c>
       <c r="B356" t="s">
         <v>365</v>
@@ -11909,7 +11909,7 @@
     </row>
     <row r="357" spans="1:11">
       <c r="A357">
-        <v>1715799600</v>
+        <v>1715788800</v>
       </c>
       <c r="B357" t="s">
         <v>366</v>
@@ -11935,7 +11935,7 @@
     </row>
     <row r="358" spans="1:11">
       <c r="A358">
-        <v>1715803200</v>
+        <v>1715792400</v>
       </c>
       <c r="B358" t="s">
         <v>367</v>
@@ -11961,7 +11961,7 @@
     </row>
     <row r="359" spans="1:11">
       <c r="A359">
-        <v>1715806800</v>
+        <v>1715796000</v>
       </c>
       <c r="B359" t="s">
         <v>368</v>
@@ -11987,7 +11987,7 @@
     </row>
     <row r="360" spans="1:11">
       <c r="A360">
-        <v>1715810400</v>
+        <v>1715799600</v>
       </c>
       <c r="B360" t="s">
         <v>369</v>
@@ -12013,7 +12013,7 @@
     </row>
     <row r="361" spans="1:11">
       <c r="A361">
-        <v>1715814000</v>
+        <v>1715803200</v>
       </c>
       <c r="B361" t="s">
         <v>370</v>
@@ -12039,7 +12039,7 @@
     </row>
     <row r="362" spans="1:11">
       <c r="A362">
-        <v>1715817600</v>
+        <v>1715806800</v>
       </c>
       <c r="B362" t="s">
         <v>371</v>
@@ -12065,7 +12065,7 @@
     </row>
     <row r="363" spans="1:11">
       <c r="A363">
-        <v>1715821200</v>
+        <v>1715810400</v>
       </c>
       <c r="B363" t="s">
         <v>372</v>
@@ -12091,7 +12091,7 @@
     </row>
     <row r="364" spans="1:11">
       <c r="A364">
-        <v>1715824800</v>
+        <v>1715814000</v>
       </c>
       <c r="B364" t="s">
         <v>373</v>
@@ -12117,7 +12117,7 @@
     </row>
     <row r="365" spans="1:11">
       <c r="A365">
-        <v>1715828400</v>
+        <v>1715817600</v>
       </c>
       <c r="B365" t="s">
         <v>374</v>
@@ -12143,7 +12143,7 @@
     </row>
     <row r="366" spans="1:11">
       <c r="A366">
-        <v>1715832000</v>
+        <v>1715821200</v>
       </c>
       <c r="B366" t="s">
         <v>375</v>
@@ -12169,7 +12169,7 @@
     </row>
     <row r="367" spans="1:11">
       <c r="A367">
-        <v>1715835600</v>
+        <v>1715824800</v>
       </c>
       <c r="B367" t="s">
         <v>376</v>
@@ -12195,7 +12195,7 @@
     </row>
     <row r="368" spans="1:11">
       <c r="A368">
-        <v>1715839200</v>
+        <v>1715828400</v>
       </c>
       <c r="B368" t="s">
         <v>377</v>
@@ -12221,7 +12221,7 @@
     </row>
     <row r="369" spans="1:11">
       <c r="A369">
-        <v>1715842800</v>
+        <v>1715832000</v>
       </c>
       <c r="B369" t="s">
         <v>378</v>
@@ -12247,7 +12247,7 @@
     </row>
     <row r="370" spans="1:11">
       <c r="A370">
-        <v>1715846400</v>
+        <v>1715835600</v>
       </c>
       <c r="B370" t="s">
         <v>379</v>
@@ -12273,7 +12273,7 @@
     </row>
     <row r="371" spans="1:11">
       <c r="A371">
-        <v>1715850000</v>
+        <v>1715839200</v>
       </c>
       <c r="B371" t="s">
         <v>380</v>
@@ -12299,7 +12299,7 @@
     </row>
     <row r="372" spans="1:11">
       <c r="A372">
-        <v>1715853600</v>
+        <v>1715842800</v>
       </c>
       <c r="B372" t="s">
         <v>381</v>
@@ -12325,7 +12325,7 @@
     </row>
     <row r="373" spans="1:11">
       <c r="A373">
-        <v>1715857200</v>
+        <v>1715846400</v>
       </c>
       <c r="B373" t="s">
         <v>382</v>
@@ -12351,7 +12351,7 @@
     </row>
     <row r="374" spans="1:11">
       <c r="A374">
-        <v>1715860800</v>
+        <v>1715850000</v>
       </c>
       <c r="B374" t="s">
         <v>383</v>
@@ -12377,7 +12377,7 @@
     </row>
     <row r="375" spans="1:11">
       <c r="A375">
-        <v>1715864400</v>
+        <v>1715853600</v>
       </c>
       <c r="B375" t="s">
         <v>384</v>
@@ -12403,7 +12403,7 @@
     </row>
     <row r="376" spans="1:11">
       <c r="A376">
-        <v>1715868000</v>
+        <v>1715857200</v>
       </c>
       <c r="B376" t="s">
         <v>385</v>
@@ -12429,7 +12429,7 @@
     </row>
     <row r="377" spans="1:11">
       <c r="A377">
-        <v>1715871600</v>
+        <v>1715860800</v>
       </c>
       <c r="B377" t="s">
         <v>386</v>
@@ -12455,7 +12455,7 @@
     </row>
     <row r="378" spans="1:11">
       <c r="A378">
-        <v>1715875200</v>
+        <v>1715864400</v>
       </c>
       <c r="B378" t="s">
         <v>387</v>
@@ -12481,7 +12481,7 @@
     </row>
     <row r="379" spans="1:11">
       <c r="A379">
-        <v>1715878800</v>
+        <v>1715868000</v>
       </c>
       <c r="B379" t="s">
         <v>388</v>
@@ -12507,7 +12507,7 @@
     </row>
     <row r="380" spans="1:11">
       <c r="A380">
-        <v>1715882400</v>
+        <v>1715871600</v>
       </c>
       <c r="B380" t="s">
         <v>389</v>
@@ -12533,7 +12533,7 @@
     </row>
     <row r="381" spans="1:11">
       <c r="A381">
-        <v>1715886000</v>
+        <v>1715875200</v>
       </c>
       <c r="B381" t="s">
         <v>390</v>
@@ -12559,7 +12559,7 @@
     </row>
     <row r="382" spans="1:11">
       <c r="A382">
-        <v>1715889600</v>
+        <v>1715878800</v>
       </c>
       <c r="B382" t="s">
         <v>391</v>
@@ -12585,7 +12585,7 @@
     </row>
     <row r="383" spans="1:11">
       <c r="A383">
-        <v>1715893200</v>
+        <v>1715882400</v>
       </c>
       <c r="B383" t="s">
         <v>392</v>
@@ -12611,7 +12611,7 @@
     </row>
     <row r="384" spans="1:11">
       <c r="A384">
-        <v>1715896800</v>
+        <v>1715886000</v>
       </c>
       <c r="B384" t="s">
         <v>393</v>
@@ -12637,7 +12637,7 @@
     </row>
     <row r="385" spans="1:11">
       <c r="A385">
-        <v>1715900400</v>
+        <v>1715889600</v>
       </c>
       <c r="B385" t="s">
         <v>394</v>
@@ -12663,7 +12663,7 @@
     </row>
     <row r="386" spans="1:11">
       <c r="A386">
-        <v>1715904000</v>
+        <v>1715893200</v>
       </c>
       <c r="B386" t="s">
         <v>395</v>
@@ -12689,7 +12689,7 @@
     </row>
     <row r="387" spans="1:11">
       <c r="A387">
-        <v>1715907600</v>
+        <v>1715896800</v>
       </c>
       <c r="B387" t="s">
         <v>396</v>
@@ -12715,7 +12715,7 @@
     </row>
     <row r="388" spans="1:11">
       <c r="A388">
-        <v>1715911200</v>
+        <v>1715900400</v>
       </c>
       <c r="B388" t="s">
         <v>397</v>
@@ -12741,7 +12741,7 @@
     </row>
     <row r="389" spans="1:11">
       <c r="A389">
-        <v>1715914800</v>
+        <v>1715904000</v>
       </c>
       <c r="B389" t="s">
         <v>398</v>
@@ -12767,7 +12767,7 @@
     </row>
     <row r="390" spans="1:11">
       <c r="A390">
-        <v>1715918400</v>
+        <v>1715907600</v>
       </c>
       <c r="B390" t="s">
         <v>399</v>
@@ -12793,7 +12793,7 @@
     </row>
     <row r="391" spans="1:11">
       <c r="A391">
-        <v>1715922000</v>
+        <v>1715911200</v>
       </c>
       <c r="B391" t="s">
         <v>400</v>
@@ -12819,7 +12819,7 @@
     </row>
     <row r="392" spans="1:11">
       <c r="A392">
-        <v>1715925600</v>
+        <v>1715914800</v>
       </c>
       <c r="B392" t="s">
         <v>401</v>
@@ -12845,7 +12845,7 @@
     </row>
     <row r="393" spans="1:11">
       <c r="A393">
-        <v>1715929200</v>
+        <v>1715918400</v>
       </c>
       <c r="B393" t="s">
         <v>402</v>
@@ -12871,7 +12871,7 @@
     </row>
     <row r="394" spans="1:11">
       <c r="A394">
-        <v>1715932800</v>
+        <v>1715922000</v>
       </c>
       <c r="B394" t="s">
         <v>403</v>
@@ -12897,7 +12897,7 @@
     </row>
     <row r="395" spans="1:11">
       <c r="A395">
-        <v>1715936400</v>
+        <v>1715925600</v>
       </c>
       <c r="B395" t="s">
         <v>404</v>
@@ -12923,7 +12923,7 @@
     </row>
     <row r="396" spans="1:11">
       <c r="A396">
-        <v>1715940000</v>
+        <v>1715929200</v>
       </c>
       <c r="B396" t="s">
         <v>405</v>
@@ -12949,7 +12949,7 @@
     </row>
     <row r="397" spans="1:11">
       <c r="A397">
-        <v>1715943600</v>
+        <v>1715932800</v>
       </c>
       <c r="B397" t="s">
         <v>406</v>
@@ -12975,7 +12975,7 @@
     </row>
     <row r="398" spans="1:11">
       <c r="A398">
-        <v>1715947200</v>
+        <v>1715936400</v>
       </c>
       <c r="B398" t="s">
         <v>407</v>
@@ -13001,7 +13001,7 @@
     </row>
     <row r="399" spans="1:11">
       <c r="A399">
-        <v>1715950800</v>
+        <v>1715940000</v>
       </c>
       <c r="B399" t="s">
         <v>408</v>
@@ -13027,7 +13027,7 @@
     </row>
     <row r="400" spans="1:11">
       <c r="A400">
-        <v>1715954400</v>
+        <v>1715943600</v>
       </c>
       <c r="B400" t="s">
         <v>409</v>
@@ -13053,7 +13053,7 @@
     </row>
     <row r="401" spans="1:11">
       <c r="A401">
-        <v>1715958000</v>
+        <v>1715947200</v>
       </c>
       <c r="B401" t="s">
         <v>410</v>
@@ -13079,7 +13079,7 @@
     </row>
     <row r="402" spans="1:11">
       <c r="A402">
-        <v>1715961600</v>
+        <v>1715950800</v>
       </c>
       <c r="B402" t="s">
         <v>411</v>
@@ -13105,7 +13105,7 @@
     </row>
     <row r="403" spans="1:11">
       <c r="A403">
-        <v>1715965200</v>
+        <v>1715954400</v>
       </c>
       <c r="B403" t="s">
         <v>412</v>
@@ -13131,7 +13131,7 @@
     </row>
     <row r="404" spans="1:11">
       <c r="A404">
-        <v>1715968800</v>
+        <v>1715958000</v>
       </c>
       <c r="B404" t="s">
         <v>413</v>
@@ -13157,7 +13157,7 @@
     </row>
     <row r="405" spans="1:11">
       <c r="A405">
-        <v>1715972400</v>
+        <v>1715961600</v>
       </c>
       <c r="B405" t="s">
         <v>414</v>
@@ -13183,7 +13183,7 @@
     </row>
     <row r="406" spans="1:11">
       <c r="A406">
-        <v>1715976000</v>
+        <v>1715965200</v>
       </c>
       <c r="B406" t="s">
         <v>415</v>
@@ -13209,7 +13209,7 @@
     </row>
     <row r="407" spans="1:11">
       <c r="A407">
-        <v>1715979600</v>
+        <v>1715968800</v>
       </c>
       <c r="B407" t="s">
         <v>416</v>
@@ -13235,7 +13235,7 @@
     </row>
     <row r="408" spans="1:11">
       <c r="A408">
-        <v>1715983200</v>
+        <v>1715972400</v>
       </c>
       <c r="B408" t="s">
         <v>417</v>
@@ -13261,7 +13261,7 @@
     </row>
     <row r="409" spans="1:11">
       <c r="A409">
-        <v>1715986800</v>
+        <v>1715976000</v>
       </c>
       <c r="B409" t="s">
         <v>418</v>
@@ -13287,7 +13287,7 @@
     </row>
     <row r="410" spans="1:11">
       <c r="A410">
-        <v>1715990400</v>
+        <v>1715979600</v>
       </c>
       <c r="B410" t="s">
         <v>419</v>
@@ -13313,7 +13313,7 @@
     </row>
     <row r="411" spans="1:11">
       <c r="A411">
-        <v>1715994000</v>
+        <v>1715983200</v>
       </c>
       <c r="B411" t="s">
         <v>420</v>
@@ -13339,7 +13339,7 @@
     </row>
     <row r="412" spans="1:11">
       <c r="A412">
-        <v>1715997600</v>
+        <v>1715986800</v>
       </c>
       <c r="B412" t="s">
         <v>421</v>
@@ -13365,7 +13365,7 @@
     </row>
     <row r="413" spans="1:11">
       <c r="A413">
-        <v>1716001200</v>
+        <v>1715990400</v>
       </c>
       <c r="B413" t="s">
         <v>422</v>
@@ -13391,7 +13391,7 @@
     </row>
     <row r="414" spans="1:11">
       <c r="A414">
-        <v>1716004800</v>
+        <v>1715994000</v>
       </c>
       <c r="B414" t="s">
         <v>423</v>
@@ -13417,7 +13417,7 @@
     </row>
     <row r="415" spans="1:11">
       <c r="A415">
-        <v>1716008400</v>
+        <v>1715997600</v>
       </c>
       <c r="B415" t="s">
         <v>424</v>
@@ -13443,7 +13443,7 @@
     </row>
     <row r="416" spans="1:11">
       <c r="A416">
-        <v>1716012000</v>
+        <v>1716001200</v>
       </c>
       <c r="B416" t="s">
         <v>425</v>
@@ -13469,7 +13469,7 @@
     </row>
     <row r="417" spans="1:11">
       <c r="A417">
-        <v>1716015600</v>
+        <v>1716004800</v>
       </c>
       <c r="B417" t="s">
         <v>426</v>
@@ -13495,7 +13495,7 @@
     </row>
     <row r="418" spans="1:11">
       <c r="A418">
-        <v>1716019200</v>
+        <v>1716008400</v>
       </c>
       <c r="B418" t="s">
         <v>427</v>
@@ -13521,7 +13521,7 @@
     </row>
     <row r="419" spans="1:11">
       <c r="A419">
-        <v>1716022800</v>
+        <v>1716012000</v>
       </c>
       <c r="B419" t="s">
         <v>428</v>
@@ -13547,7 +13547,7 @@
     </row>
     <row r="420" spans="1:11">
       <c r="A420">
-        <v>1716026400</v>
+        <v>1716015600</v>
       </c>
       <c r="B420" t="s">
         <v>429</v>
@@ -13573,7 +13573,7 @@
     </row>
     <row r="421" spans="1:11">
       <c r="A421">
-        <v>1716030000</v>
+        <v>1716019200</v>
       </c>
       <c r="B421" t="s">
         <v>430</v>
@@ -13599,7 +13599,7 @@
     </row>
     <row r="422" spans="1:11">
       <c r="A422">
-        <v>1716033600</v>
+        <v>1716022800</v>
       </c>
       <c r="B422" t="s">
         <v>431</v>
@@ -13625,7 +13625,7 @@
     </row>
     <row r="423" spans="1:11">
       <c r="A423">
-        <v>1716037200</v>
+        <v>1716026400</v>
       </c>
       <c r="B423" t="s">
         <v>432</v>
@@ -13651,7 +13651,7 @@
     </row>
     <row r="424" spans="1:11">
       <c r="A424">
-        <v>1716040800</v>
+        <v>1716030000</v>
       </c>
       <c r="B424" t="s">
         <v>433</v>
@@ -13677,7 +13677,7 @@
     </row>
     <row r="425" spans="1:11">
       <c r="A425">
-        <v>1716044400</v>
+        <v>1716033600</v>
       </c>
       <c r="B425" t="s">
         <v>434</v>
@@ -13703,7 +13703,7 @@
     </row>
     <row r="426" spans="1:11">
       <c r="A426">
-        <v>1716048000</v>
+        <v>1716037200</v>
       </c>
       <c r="B426" t="s">
         <v>435</v>
@@ -13729,7 +13729,7 @@
     </row>
     <row r="427" spans="1:11">
       <c r="A427">
-        <v>1716051600</v>
+        <v>1716040800</v>
       </c>
       <c r="B427" t="s">
         <v>436</v>
@@ -13755,7 +13755,7 @@
     </row>
     <row r="428" spans="1:11">
       <c r="A428">
-        <v>1716055200</v>
+        <v>1716044400</v>
       </c>
       <c r="B428" t="s">
         <v>437</v>
@@ -13781,7 +13781,7 @@
     </row>
     <row r="429" spans="1:11">
       <c r="A429">
-        <v>1716058800</v>
+        <v>1716048000</v>
       </c>
       <c r="B429" t="s">
         <v>438</v>
@@ -13807,7 +13807,7 @@
     </row>
     <row r="430" spans="1:11">
       <c r="A430">
-        <v>1716062400</v>
+        <v>1716051600</v>
       </c>
       <c r="B430" t="s">
         <v>439</v>
@@ -13833,7 +13833,7 @@
     </row>
     <row r="431" spans="1:11">
       <c r="A431">
-        <v>1716066000</v>
+        <v>1716055200</v>
       </c>
       <c r="B431" t="s">
         <v>440</v>
@@ -13859,7 +13859,7 @@
     </row>
     <row r="432" spans="1:11">
       <c r="A432">
-        <v>1716069600</v>
+        <v>1716058800</v>
       </c>
       <c r="B432" t="s">
         <v>441</v>
@@ -13885,7 +13885,7 @@
     </row>
     <row r="433" spans="1:11">
       <c r="A433">
-        <v>1716073200</v>
+        <v>1716062400</v>
       </c>
       <c r="B433" t="s">
         <v>442</v>
@@ -13911,7 +13911,7 @@
     </row>
     <row r="434" spans="1:11">
       <c r="A434">
-        <v>1716076800</v>
+        <v>1716066000</v>
       </c>
       <c r="B434" t="s">
         <v>443</v>
@@ -13937,7 +13937,7 @@
     </row>
     <row r="435" spans="1:11">
       <c r="A435">
-        <v>1716080400</v>
+        <v>1716069600</v>
       </c>
       <c r="B435" t="s">
         <v>444</v>
@@ -13963,7 +13963,7 @@
     </row>
     <row r="436" spans="1:11">
       <c r="A436">
-        <v>1716084000</v>
+        <v>1716073200</v>
       </c>
       <c r="B436" t="s">
         <v>445</v>
@@ -13989,7 +13989,7 @@
     </row>
     <row r="437" spans="1:11">
       <c r="A437">
-        <v>1716087600</v>
+        <v>1716076800</v>
       </c>
       <c r="B437" t="s">
         <v>446</v>
@@ -14015,7 +14015,7 @@
     </row>
     <row r="438" spans="1:11">
       <c r="A438">
-        <v>1716091200</v>
+        <v>1716080400</v>
       </c>
       <c r="B438" t="s">
         <v>447</v>
@@ -14041,7 +14041,7 @@
     </row>
     <row r="439" spans="1:11">
       <c r="A439">
-        <v>1716094800</v>
+        <v>1716084000</v>
       </c>
       <c r="B439" t="s">
         <v>448</v>
@@ -14067,7 +14067,7 @@
     </row>
     <row r="440" spans="1:11">
       <c r="A440">
-        <v>1716098400</v>
+        <v>1716087600</v>
       </c>
       <c r="B440" t="s">
         <v>449</v>
@@ -14093,7 +14093,7 @@
     </row>
     <row r="441" spans="1:11">
       <c r="A441">
-        <v>1716102000</v>
+        <v>1716091200</v>
       </c>
       <c r="B441" t="s">
         <v>450</v>
@@ -14119,7 +14119,7 @@
     </row>
     <row r="442" spans="1:11">
       <c r="A442">
-        <v>1716105600</v>
+        <v>1716094800</v>
       </c>
       <c r="B442" t="s">
         <v>451</v>
@@ -14145,7 +14145,7 @@
     </row>
     <row r="443" spans="1:11">
       <c r="A443">
-        <v>1716109200</v>
+        <v>1716098400</v>
       </c>
       <c r="B443" t="s">
         <v>452</v>
@@ -14171,7 +14171,7 @@
     </row>
     <row r="444" spans="1:11">
       <c r="A444">
-        <v>1716112800</v>
+        <v>1716102000</v>
       </c>
       <c r="B444" t="s">
         <v>453</v>
@@ -14197,7 +14197,7 @@
     </row>
     <row r="445" spans="1:11">
       <c r="A445">
-        <v>1716116400</v>
+        <v>1716105600</v>
       </c>
       <c r="B445" t="s">
         <v>454</v>
@@ -14223,7 +14223,7 @@
     </row>
     <row r="446" spans="1:11">
       <c r="A446">
-        <v>1716120000</v>
+        <v>1716109200</v>
       </c>
       <c r="B446" t="s">
         <v>455</v>
@@ -14249,7 +14249,7 @@
     </row>
     <row r="447" spans="1:11">
       <c r="A447">
-        <v>1716123600</v>
+        <v>1716112800</v>
       </c>
       <c r="B447" t="s">
         <v>456</v>
@@ -14275,7 +14275,7 @@
     </row>
     <row r="448" spans="1:11">
       <c r="A448">
-        <v>1716127200</v>
+        <v>1716116400</v>
       </c>
       <c r="B448" t="s">
         <v>457</v>
@@ -14301,7 +14301,7 @@
     </row>
     <row r="449" spans="1:11">
       <c r="A449">
-        <v>1716130800</v>
+        <v>1716120000</v>
       </c>
       <c r="B449" t="s">
         <v>458</v>
@@ -14327,7 +14327,7 @@
     </row>
     <row r="450" spans="1:11">
       <c r="A450">
-        <v>1716134400</v>
+        <v>1716123600</v>
       </c>
       <c r="B450" t="s">
         <v>459</v>
@@ -14353,7 +14353,7 @@
     </row>
     <row r="451" spans="1:11">
       <c r="A451">
-        <v>1716138000</v>
+        <v>1716127200</v>
       </c>
       <c r="B451" t="s">
         <v>460</v>
@@ -14379,7 +14379,7 @@
     </row>
     <row r="452" spans="1:11">
       <c r="A452">
-        <v>1716141600</v>
+        <v>1716130800</v>
       </c>
       <c r="B452" t="s">
         <v>461</v>
@@ -14405,7 +14405,7 @@
     </row>
     <row r="453" spans="1:11">
       <c r="A453">
-        <v>1716145200</v>
+        <v>1716134400</v>
       </c>
       <c r="B453" t="s">
         <v>462</v>
@@ -14431,7 +14431,7 @@
     </row>
     <row r="454" spans="1:11">
       <c r="A454">
-        <v>1716148800</v>
+        <v>1716138000</v>
       </c>
       <c r="B454" t="s">
         <v>463</v>
@@ -14457,7 +14457,7 @@
     </row>
     <row r="455" spans="1:11">
       <c r="A455">
-        <v>1716152400</v>
+        <v>1716141600</v>
       </c>
       <c r="B455" t="s">
         <v>464</v>
@@ -14483,7 +14483,7 @@
     </row>
     <row r="456" spans="1:11">
       <c r="A456">
-        <v>1716156000</v>
+        <v>1716145200</v>
       </c>
       <c r="B456" t="s">
         <v>465</v>
@@ -14509,7 +14509,7 @@
     </row>
     <row r="457" spans="1:11">
       <c r="A457">
-        <v>1716159600</v>
+        <v>1716148800</v>
       </c>
       <c r="B457" t="s">
         <v>466</v>
@@ -14535,7 +14535,7 @@
     </row>
     <row r="458" spans="1:11">
       <c r="A458">
-        <v>1716163200</v>
+        <v>1716152400</v>
       </c>
       <c r="B458" t="s">
         <v>467</v>
@@ -14561,7 +14561,7 @@
     </row>
     <row r="459" spans="1:11">
       <c r="A459">
-        <v>1716166800</v>
+        <v>1716156000</v>
       </c>
       <c r="B459" t="s">
         <v>468</v>
@@ -14587,7 +14587,7 @@
     </row>
     <row r="460" spans="1:11">
       <c r="A460">
-        <v>1716170400</v>
+        <v>1716159600</v>
       </c>
       <c r="B460" t="s">
         <v>469</v>
@@ -14613,7 +14613,7 @@
     </row>
     <row r="461" spans="1:11">
       <c r="A461">
-        <v>1716174000</v>
+        <v>1716163200</v>
       </c>
       <c r="B461" t="s">
         <v>470</v>
@@ -14639,7 +14639,7 @@
     </row>
     <row r="462" spans="1:11">
       <c r="A462">
-        <v>1716177600</v>
+        <v>1716166800</v>
       </c>
       <c r="B462" t="s">
         <v>471</v>
@@ -14665,7 +14665,7 @@
     </row>
     <row r="463" spans="1:11">
       <c r="A463">
-        <v>1716181200</v>
+        <v>1716170400</v>
       </c>
       <c r="B463" t="s">
         <v>472</v>
@@ -14691,7 +14691,7 @@
     </row>
     <row r="464" spans="1:11">
       <c r="A464">
-        <v>1716184800</v>
+        <v>1716174000</v>
       </c>
       <c r="B464" t="s">
         <v>473</v>
@@ -14717,7 +14717,7 @@
     </row>
     <row r="465" spans="1:11">
       <c r="A465">
-        <v>1716188400</v>
+        <v>1716177600</v>
       </c>
       <c r="B465" t="s">
         <v>474</v>
@@ -14743,7 +14743,7 @@
     </row>
     <row r="466" spans="1:11">
       <c r="A466">
-        <v>1716192000</v>
+        <v>1716181200</v>
       </c>
       <c r="B466" t="s">
         <v>475</v>
@@ -14769,7 +14769,7 @@
     </row>
     <row r="467" spans="1:11">
       <c r="A467">
-        <v>1716195600</v>
+        <v>1716184800</v>
       </c>
       <c r="B467" t="s">
         <v>476</v>
@@ -14795,7 +14795,7 @@
     </row>
     <row r="468" spans="1:11">
       <c r="A468">
-        <v>1716199200</v>
+        <v>1716188400</v>
       </c>
       <c r="B468" t="s">
         <v>477</v>
@@ -14821,7 +14821,7 @@
     </row>
     <row r="469" spans="1:11">
       <c r="A469">
-        <v>1716202800</v>
+        <v>1716192000</v>
       </c>
       <c r="B469" t="s">
         <v>478</v>
@@ -14847,7 +14847,7 @@
     </row>
     <row r="470" spans="1:11">
       <c r="A470">
-        <v>1716206400</v>
+        <v>1716195600</v>
       </c>
       <c r="B470" t="s">
         <v>479</v>
@@ -14873,7 +14873,7 @@
     </row>
     <row r="471" spans="1:11">
       <c r="A471">
-        <v>1716210000</v>
+        <v>1716199200</v>
       </c>
       <c r="B471" t="s">
         <v>480</v>
@@ -14899,7 +14899,7 @@
     </row>
     <row r="472" spans="1:11">
       <c r="A472">
-        <v>1716213600</v>
+        <v>1716202800</v>
       </c>
       <c r="B472" t="s">
         <v>481</v>
@@ -14925,7 +14925,7 @@
     </row>
     <row r="473" spans="1:11">
       <c r="A473">
-        <v>1716217200</v>
+        <v>1716206400</v>
       </c>
       <c r="B473" t="s">
         <v>482</v>
@@ -14951,7 +14951,7 @@
     </row>
     <row r="474" spans="1:11">
       <c r="A474">
-        <v>1716220800</v>
+        <v>1716210000</v>
       </c>
       <c r="B474" t="s">
         <v>483</v>
@@ -14977,7 +14977,7 @@
     </row>
     <row r="475" spans="1:11">
       <c r="A475">
-        <v>1716224400</v>
+        <v>1716213600</v>
       </c>
       <c r="B475" t="s">
         <v>484</v>
@@ -15003,7 +15003,7 @@
     </row>
     <row r="476" spans="1:11">
       <c r="A476">
-        <v>1716228000</v>
+        <v>1716217200</v>
       </c>
       <c r="B476" t="s">
         <v>485</v>
@@ -15029,7 +15029,7 @@
     </row>
     <row r="477" spans="1:11">
       <c r="A477">
-        <v>1716231600</v>
+        <v>1716220800</v>
       </c>
       <c r="B477" t="s">
         <v>486</v>
@@ -15055,7 +15055,7 @@
     </row>
     <row r="478" spans="1:11">
       <c r="A478">
-        <v>1716235200</v>
+        <v>1716224400</v>
       </c>
       <c r="B478" t="s">
         <v>487</v>
@@ -15081,7 +15081,7 @@
     </row>
     <row r="479" spans="1:11">
       <c r="A479">
-        <v>1716238800</v>
+        <v>1716228000</v>
       </c>
       <c r="B479" t="s">
         <v>488</v>
@@ -15107,7 +15107,7 @@
     </row>
     <row r="480" spans="1:11">
       <c r="A480">
-        <v>1716242400</v>
+        <v>1716231600</v>
       </c>
       <c r="B480" t="s">
         <v>489</v>
@@ -15133,7 +15133,7 @@
     </row>
     <row r="481" spans="1:11">
       <c r="A481">
-        <v>1716246000</v>
+        <v>1716235200</v>
       </c>
       <c r="B481" t="s">
         <v>490</v>
@@ -15159,7 +15159,7 @@
     </row>
     <row r="482" spans="1:11">
       <c r="A482">
-        <v>1716249600</v>
+        <v>1716238800</v>
       </c>
       <c r="B482" t="s">
         <v>491</v>
@@ -15185,7 +15185,7 @@
     </row>
     <row r="483" spans="1:11">
       <c r="A483">
-        <v>1716253200</v>
+        <v>1716242400</v>
       </c>
       <c r="B483" t="s">
         <v>492</v>
@@ -15211,7 +15211,7 @@
     </row>
     <row r="484" spans="1:11">
       <c r="A484">
-        <v>1716256800</v>
+        <v>1716246000</v>
       </c>
       <c r="B484" t="s">
         <v>493</v>
@@ -15237,7 +15237,7 @@
     </row>
     <row r="485" spans="1:11">
       <c r="A485">
-        <v>1716260400</v>
+        <v>1716249600</v>
       </c>
       <c r="B485" t="s">
         <v>494</v>
@@ -15263,7 +15263,7 @@
     </row>
     <row r="486" spans="1:11">
       <c r="A486">
-        <v>1716264000</v>
+        <v>1716253200</v>
       </c>
       <c r="B486" t="s">
         <v>495</v>
@@ -15289,7 +15289,7 @@
     </row>
     <row r="487" spans="1:11">
       <c r="A487">
-        <v>1716267600</v>
+        <v>1716256800</v>
       </c>
       <c r="B487" t="s">
         <v>496</v>
@@ -15315,7 +15315,7 @@
     </row>
     <row r="488" spans="1:11">
       <c r="A488">
-        <v>1716271200</v>
+        <v>1716260400</v>
       </c>
       <c r="B488" t="s">
         <v>497</v>
@@ -15341,7 +15341,7 @@
     </row>
     <row r="489" spans="1:11">
       <c r="A489">
-        <v>1716274800</v>
+        <v>1716264000</v>
       </c>
       <c r="B489" t="s">
         <v>498</v>
@@ -15367,7 +15367,7 @@
     </row>
     <row r="490" spans="1:11">
       <c r="A490">
-        <v>1716278400</v>
+        <v>1716267600</v>
       </c>
       <c r="B490" t="s">
         <v>499</v>
@@ -15393,7 +15393,7 @@
     </row>
     <row r="491" spans="1:11">
       <c r="A491">
-        <v>1716282000</v>
+        <v>1716271200</v>
       </c>
       <c r="B491" t="s">
         <v>500</v>
@@ -15419,7 +15419,7 @@
     </row>
     <row r="492" spans="1:11">
       <c r="A492">
-        <v>1716285600</v>
+        <v>1716274800</v>
       </c>
       <c r="B492" t="s">
         <v>501</v>
@@ -15445,7 +15445,7 @@
     </row>
     <row r="493" spans="1:11">
       <c r="A493">
-        <v>1716289200</v>
+        <v>1716278400</v>
       </c>
       <c r="B493" t="s">
         <v>502</v>
@@ -15471,7 +15471,7 @@
     </row>
     <row r="494" spans="1:11">
       <c r="A494">
-        <v>1716292800</v>
+        <v>1716282000</v>
       </c>
       <c r="B494" t="s">
         <v>503</v>
@@ -15497,7 +15497,7 @@
     </row>
     <row r="495" spans="1:11">
       <c r="A495">
-        <v>1716296400</v>
+        <v>1716285600</v>
       </c>
       <c r="B495" t="s">
         <v>504</v>
@@ -15523,7 +15523,7 @@
     </row>
     <row r="496" spans="1:11">
       <c r="A496">
-        <v>1716300000</v>
+        <v>1716289200</v>
       </c>
       <c r="B496" t="s">
         <v>505</v>
@@ -15549,7 +15549,7 @@
     </row>
     <row r="497" spans="1:11">
       <c r="A497">
-        <v>1716303600</v>
+        <v>1716292800</v>
       </c>
       <c r="B497" t="s">
         <v>506</v>
@@ -15575,7 +15575,7 @@
     </row>
     <row r="498" spans="1:11">
       <c r="A498">
-        <v>1716307200</v>
+        <v>1716296400</v>
       </c>
       <c r="B498" t="s">
         <v>507</v>
@@ -15601,7 +15601,7 @@
     </row>
     <row r="499" spans="1:11">
       <c r="A499">
-        <v>1716310800</v>
+        <v>1716300000</v>
       </c>
       <c r="B499" t="s">
         <v>508</v>
@@ -15627,7 +15627,7 @@
     </row>
     <row r="500" spans="1:11">
       <c r="A500">
-        <v>1716314400</v>
+        <v>1716303600</v>
       </c>
       <c r="B500" t="s">
         <v>509</v>
@@ -15653,7 +15653,7 @@
     </row>
     <row r="501" spans="1:11">
       <c r="A501">
-        <v>1716318000</v>
+        <v>1716307200</v>
       </c>
       <c r="B501" t="s">
         <v>510</v>
@@ -15679,7 +15679,7 @@
     </row>
     <row r="502" spans="1:11">
       <c r="A502">
-        <v>1716321600</v>
+        <v>1716310800</v>
       </c>
       <c r="B502" t="s">
         <v>511</v>
@@ -15705,7 +15705,7 @@
     </row>
     <row r="503" spans="1:11">
       <c r="A503">
-        <v>1716325200</v>
+        <v>1716314400</v>
       </c>
       <c r="B503" t="s">
         <v>512</v>
@@ -15731,7 +15731,7 @@
     </row>
     <row r="504" spans="1:11">
       <c r="A504">
-        <v>1716328800</v>
+        <v>1716318000</v>
       </c>
       <c r="B504" t="s">
         <v>513</v>
@@ -15757,7 +15757,7 @@
     </row>
     <row r="505" spans="1:11">
       <c r="A505">
-        <v>1716332400</v>
+        <v>1716321600</v>
       </c>
       <c r="B505" t="s">
         <v>514</v>
@@ -15783,7 +15783,7 @@
     </row>
     <row r="506" spans="1:11">
       <c r="A506">
-        <v>1716336000</v>
+        <v>1716325200</v>
       </c>
       <c r="B506" t="s">
         <v>515</v>
@@ -15809,7 +15809,7 @@
     </row>
     <row r="507" spans="1:11">
       <c r="A507">
-        <v>1716339600</v>
+        <v>1716328800</v>
       </c>
       <c r="B507" t="s">
         <v>516</v>
@@ -15835,7 +15835,7 @@
     </row>
     <row r="508" spans="1:11">
       <c r="A508">
-        <v>1716343200</v>
+        <v>1716332400</v>
       </c>
       <c r="B508" t="s">
         <v>517</v>
@@ -15861,7 +15861,7 @@
     </row>
     <row r="509" spans="1:11">
       <c r="A509">
-        <v>1716346800</v>
+        <v>1716336000</v>
       </c>
       <c r="B509" t="s">
         <v>518</v>
@@ -15887,7 +15887,7 @@
     </row>
     <row r="510" spans="1:11">
       <c r="A510">
-        <v>1716350400</v>
+        <v>1716339600</v>
       </c>
       <c r="B510" t="s">
         <v>519</v>
@@ -15913,7 +15913,7 @@
     </row>
     <row r="511" spans="1:11">
       <c r="A511">
-        <v>1716354000</v>
+        <v>1716343200</v>
       </c>
       <c r="B511" t="s">
         <v>520</v>
@@ -15939,7 +15939,7 @@
     </row>
     <row r="512" spans="1:11">
       <c r="A512">
-        <v>1716357600</v>
+        <v>1716346800</v>
       </c>
       <c r="B512" t="s">
         <v>521</v>
@@ -15965,7 +15965,7 @@
     </row>
     <row r="513" spans="1:11">
       <c r="A513">
-        <v>1716361200</v>
+        <v>1716350400</v>
       </c>
       <c r="B513" t="s">
         <v>522</v>
@@ -15991,7 +15991,7 @@
     </row>
     <row r="514" spans="1:11">
       <c r="A514">
-        <v>1716364800</v>
+        <v>1716354000</v>
       </c>
       <c r="B514" t="s">
         <v>523</v>
@@ -16017,7 +16017,7 @@
     </row>
     <row r="515" spans="1:11">
       <c r="A515">
-        <v>1716368400</v>
+        <v>1716357600</v>
       </c>
       <c r="B515" t="s">
         <v>524</v>
@@ -16043,7 +16043,7 @@
     </row>
     <row r="516" spans="1:11">
       <c r="A516">
-        <v>1716372000</v>
+        <v>1716361200</v>
       </c>
       <c r="B516" t="s">
         <v>525</v>
@@ -16069,7 +16069,7 @@
     </row>
     <row r="517" spans="1:11">
       <c r="A517">
-        <v>1716375600</v>
+        <v>1716364800</v>
       </c>
       <c r="B517" t="s">
         <v>526</v>
@@ -16095,7 +16095,7 @@
     </row>
     <row r="518" spans="1:11">
       <c r="A518">
-        <v>1716379200</v>
+        <v>1716368400</v>
       </c>
       <c r="B518" t="s">
         <v>527</v>
@@ -16121,7 +16121,7 @@
     </row>
     <row r="519" spans="1:11">
       <c r="A519">
-        <v>1716382800</v>
+        <v>1716372000</v>
       </c>
       <c r="B519" t="s">
         <v>528</v>
@@ -16147,7 +16147,7 @@
     </row>
     <row r="520" spans="1:11">
       <c r="A520">
-        <v>1716386400</v>
+        <v>1716375600</v>
       </c>
       <c r="B520" t="s">
         <v>529</v>
@@ -16173,7 +16173,7 @@
     </row>
     <row r="521" spans="1:11">
       <c r="A521">
-        <v>1716390000</v>
+        <v>1716379200</v>
       </c>
       <c r="B521" t="s">
         <v>530</v>
@@ -16199,7 +16199,7 @@
     </row>
     <row r="522" spans="1:11">
       <c r="A522">
-        <v>1716393600</v>
+        <v>1716382800</v>
       </c>
       <c r="B522" t="s">
         <v>531</v>
@@ -16225,7 +16225,7 @@
     </row>
     <row r="523" spans="1:11">
       <c r="A523">
-        <v>1716397200</v>
+        <v>1716386400</v>
       </c>
       <c r="B523" t="s">
         <v>532</v>
@@ -16251,7 +16251,7 @@
     </row>
     <row r="524" spans="1:11">
       <c r="A524">
-        <v>1716400800</v>
+        <v>1716390000</v>
       </c>
       <c r="B524" t="s">
         <v>533</v>
@@ -16277,7 +16277,7 @@
     </row>
     <row r="525" spans="1:11">
       <c r="A525">
-        <v>1716404400</v>
+        <v>1716393600</v>
       </c>
       <c r="B525" t="s">
         <v>534</v>
@@ -16303,7 +16303,7 @@
     </row>
     <row r="526" spans="1:11">
       <c r="A526">
-        <v>1716408000</v>
+        <v>1716397200</v>
       </c>
       <c r="B526" t="s">
         <v>535</v>
@@ -16329,7 +16329,7 @@
     </row>
     <row r="527" spans="1:11">
       <c r="A527">
-        <v>1716411600</v>
+        <v>1716400800</v>
       </c>
       <c r="B527" t="s">
         <v>536</v>
@@ -16355,7 +16355,7 @@
     </row>
     <row r="528" spans="1:11">
       <c r="A528">
-        <v>1716415200</v>
+        <v>1716404400</v>
       </c>
       <c r="B528" t="s">
         <v>537</v>
@@ -16381,7 +16381,7 @@
     </row>
     <row r="529" spans="1:11">
       <c r="A529">
-        <v>1716418800</v>
+        <v>1716408000</v>
       </c>
       <c r="B529" t="s">
         <v>538</v>
@@ -16407,7 +16407,7 @@
     </row>
     <row r="530" spans="1:11">
       <c r="A530">
-        <v>1716422400</v>
+        <v>1716411600</v>
       </c>
       <c r="B530" t="s">
         <v>539</v>
@@ -16433,7 +16433,7 @@
     </row>
     <row r="531" spans="1:11">
       <c r="A531">
-        <v>1716426000</v>
+        <v>1716415200</v>
       </c>
       <c r="B531" t="s">
         <v>540</v>
@@ -16459,7 +16459,7 @@
     </row>
     <row r="532" spans="1:11">
       <c r="A532">
-        <v>1716429600</v>
+        <v>1716418800</v>
       </c>
       <c r="B532" t="s">
         <v>541</v>
@@ -16485,7 +16485,7 @@
     </row>
     <row r="533" spans="1:11">
       <c r="A533">
-        <v>1716433200</v>
+        <v>1716422400</v>
       </c>
       <c r="B533" t="s">
         <v>542</v>
@@ -16511,7 +16511,7 @@
     </row>
     <row r="534" spans="1:11">
       <c r="A534">
-        <v>1716436800</v>
+        <v>1716426000</v>
       </c>
       <c r="B534" t="s">
         <v>543</v>
@@ -16537,7 +16537,7 @@
     </row>
     <row r="535" spans="1:11">
       <c r="A535">
-        <v>1716440400</v>
+        <v>1716429600</v>
       </c>
       <c r="B535" t="s">
         <v>544</v>
@@ -16563,7 +16563,7 @@
     </row>
     <row r="536" spans="1:11">
       <c r="A536">
-        <v>1716444000</v>
+        <v>1716433200</v>
       </c>
       <c r="B536" t="s">
         <v>545</v>
@@ -16589,7 +16589,7 @@
     </row>
     <row r="537" spans="1:11">
       <c r="A537">
-        <v>1716447600</v>
+        <v>1716436800</v>
       </c>
       <c r="B537" t="s">
         <v>546</v>
@@ -16615,7 +16615,7 @@
     </row>
     <row r="538" spans="1:11">
       <c r="A538">
-        <v>1716451200</v>
+        <v>1716440400</v>
       </c>
       <c r="B538" t="s">
         <v>547</v>
@@ -16641,7 +16641,7 @@
     </row>
     <row r="539" spans="1:11">
       <c r="A539">
-        <v>1716454800</v>
+        <v>1716444000</v>
       </c>
       <c r="B539" t="s">
         <v>548</v>
@@ -16667,7 +16667,7 @@
     </row>
     <row r="540" spans="1:11">
       <c r="A540">
-        <v>1716458400</v>
+        <v>1716447600</v>
       </c>
       <c r="B540" t="s">
         <v>549</v>
@@ -16693,7 +16693,7 @@
     </row>
     <row r="541" spans="1:11">
       <c r="A541">
-        <v>1716462000</v>
+        <v>1716451200</v>
       </c>
       <c r="B541" t="s">
         <v>550</v>
@@ -16719,7 +16719,7 @@
     </row>
     <row r="542" spans="1:11">
       <c r="A542">
-        <v>1716465600</v>
+        <v>1716454800</v>
       </c>
       <c r="B542" t="s">
         <v>551</v>
@@ -16745,7 +16745,7 @@
     </row>
     <row r="543" spans="1:11">
       <c r="A543">
-        <v>1716469200</v>
+        <v>1716458400</v>
       </c>
       <c r="B543" t="s">
         <v>552</v>
@@ -16771,7 +16771,7 @@
     </row>
     <row r="544" spans="1:11">
       <c r="A544">
-        <v>1716472800</v>
+        <v>1716462000</v>
       </c>
       <c r="B544" t="s">
         <v>553</v>
@@ -16797,7 +16797,7 @@
     </row>
     <row r="545" spans="1:11">
       <c r="A545">
-        <v>1716476400</v>
+        <v>1716465600</v>
       </c>
       <c r="B545" t="s">
         <v>554</v>
@@ -16823,7 +16823,7 @@
     </row>
     <row r="546" spans="1:11">
       <c r="A546">
-        <v>1716480000</v>
+        <v>1716469200</v>
       </c>
       <c r="B546" t="s">
         <v>555</v>
@@ -16849,7 +16849,7 @@
     </row>
     <row r="547" spans="1:11">
       <c r="A547">
-        <v>1716483600</v>
+        <v>1716472800</v>
       </c>
       <c r="B547" t="s">
         <v>556</v>
@@ -16875,7 +16875,7 @@
     </row>
     <row r="548" spans="1:11">
       <c r="A548">
-        <v>1716487200</v>
+        <v>1716476400</v>
       </c>
       <c r="B548" t="s">
         <v>557</v>
@@ -16901,7 +16901,7 @@
     </row>
     <row r="549" spans="1:11">
       <c r="A549">
-        <v>1716490800</v>
+        <v>1716480000</v>
       </c>
       <c r="B549" t="s">
         <v>558</v>
@@ -16927,7 +16927,7 @@
     </row>
     <row r="550" spans="1:11">
       <c r="A550">
-        <v>1716494400</v>
+        <v>1716483600</v>
       </c>
       <c r="B550" t="s">
         <v>559</v>
@@ -16953,7 +16953,7 @@
     </row>
     <row r="551" spans="1:11">
       <c r="A551">
-        <v>1716498000</v>
+        <v>1716487200</v>
       </c>
       <c r="B551" t="s">
         <v>560</v>
@@ -16979,7 +16979,7 @@
     </row>
     <row r="552" spans="1:11">
       <c r="A552">
-        <v>1716501600</v>
+        <v>1716490800</v>
       </c>
       <c r="B552" t="s">
         <v>561</v>
@@ -17005,7 +17005,7 @@
     </row>
     <row r="553" spans="1:11">
       <c r="A553">
-        <v>1716505200</v>
+        <v>1716494400</v>
       </c>
       <c r="B553" t="s">
         <v>562</v>
@@ -17031,7 +17031,7 @@
     </row>
     <row r="554" spans="1:11">
       <c r="A554">
-        <v>1716508800</v>
+        <v>1716498000</v>
       </c>
       <c r="B554" t="s">
         <v>563</v>
@@ -17057,7 +17057,7 @@
     </row>
     <row r="555" spans="1:11">
       <c r="A555">
-        <v>1716512400</v>
+        <v>1716501600</v>
       </c>
       <c r="B555" t="s">
         <v>564</v>
@@ -17083,7 +17083,7 @@
     </row>
     <row r="556" spans="1:11">
       <c r="A556">
-        <v>1716516000</v>
+        <v>1716505200</v>
       </c>
       <c r="B556" t="s">
         <v>565</v>
@@ -17109,7 +17109,7 @@
     </row>
     <row r="557" spans="1:11">
       <c r="A557">
-        <v>1716519600</v>
+        <v>1716508800</v>
       </c>
       <c r="B557" t="s">
         <v>566</v>
@@ -17135,7 +17135,7 @@
     </row>
     <row r="558" spans="1:11">
       <c r="A558">
-        <v>1716523200</v>
+        <v>1716512400</v>
       </c>
       <c r="B558" t="s">
         <v>567</v>
@@ -17161,7 +17161,7 @@
     </row>
     <row r="559" spans="1:11">
       <c r="A559">
-        <v>1716526800</v>
+        <v>1716516000</v>
       </c>
       <c r="B559" t="s">
         <v>568</v>
@@ -17187,7 +17187,7 @@
     </row>
     <row r="560" spans="1:11">
       <c r="A560">
-        <v>1716530400</v>
+        <v>1716519600</v>
       </c>
       <c r="B560" t="s">
         <v>569</v>
@@ -17213,7 +17213,7 @@
     </row>
     <row r="561" spans="1:11">
       <c r="A561">
-        <v>1716534000</v>
+        <v>1716523200</v>
       </c>
       <c r="B561" t="s">
         <v>570</v>
@@ -17239,7 +17239,7 @@
     </row>
     <row r="562" spans="1:11">
       <c r="A562">
-        <v>1716537600</v>
+        <v>1716526800</v>
       </c>
       <c r="B562" t="s">
         <v>571</v>
@@ -17265,7 +17265,7 @@
     </row>
     <row r="563" spans="1:11">
       <c r="A563">
-        <v>1716541200</v>
+        <v>1716530400</v>
       </c>
       <c r="B563" t="s">
         <v>572</v>
@@ -17291,7 +17291,7 @@
     </row>
     <row r="564" spans="1:11">
       <c r="A564">
-        <v>1716544800</v>
+        <v>1716534000</v>
       </c>
       <c r="B564" t="s">
         <v>573</v>
@@ -17317,7 +17317,7 @@
     </row>
     <row r="565" spans="1:11">
       <c r="A565">
-        <v>1716548400</v>
+        <v>1716537600</v>
       </c>
       <c r="B565" t="s">
         <v>574</v>
@@ -17343,7 +17343,7 @@
     </row>
     <row r="566" spans="1:11">
       <c r="A566">
-        <v>1716552000</v>
+        <v>1716541200</v>
       </c>
       <c r="B566" t="s">
         <v>575</v>
@@ -17369,7 +17369,7 @@
     </row>
     <row r="567" spans="1:11">
       <c r="A567">
-        <v>1716555600</v>
+        <v>1716544800</v>
       </c>
       <c r="B567" t="s">
         <v>576</v>
@@ -17395,7 +17395,7 @@
     </row>
     <row r="568" spans="1:11">
       <c r="A568">
-        <v>1716559200</v>
+        <v>1716548400</v>
       </c>
       <c r="B568" t="s">
         <v>577</v>
@@ -17421,7 +17421,7 @@
     </row>
     <row r="569" spans="1:11">
       <c r="A569">
-        <v>1716562800</v>
+        <v>1716552000</v>
       </c>
       <c r="B569" t="s">
         <v>578</v>
@@ -17447,7 +17447,7 @@
     </row>
     <row r="570" spans="1:11">
       <c r="A570">
-        <v>1716566400</v>
+        <v>1716555600</v>
       </c>
       <c r="B570" t="s">
         <v>579</v>
@@ -17473,7 +17473,7 @@
     </row>
     <row r="571" spans="1:11">
       <c r="A571">
-        <v>1716570000</v>
+        <v>1716559200</v>
       </c>
       <c r="B571" t="s">
         <v>580</v>
@@ -17499,7 +17499,7 @@
     </row>
     <row r="572" spans="1:11">
       <c r="A572">
-        <v>1716573600</v>
+        <v>1716562800</v>
       </c>
       <c r="B572" t="s">
         <v>581</v>
@@ -17525,7 +17525,7 @@
     </row>
     <row r="573" spans="1:11">
       <c r="A573">
-        <v>1716577200</v>
+        <v>1716566400</v>
       </c>
       <c r="B573" t="s">
         <v>582</v>
@@ -17551,7 +17551,7 @@
     </row>
     <row r="574" spans="1:11">
       <c r="A574">
-        <v>1716580800</v>
+        <v>1716570000</v>
       </c>
       <c r="B574" t="s">
         <v>583</v>
@@ -17577,7 +17577,7 @@
     </row>
     <row r="575" spans="1:11">
       <c r="A575">
-        <v>1716584400</v>
+        <v>1716573600</v>
       </c>
       <c r="B575" t="s">
         <v>584</v>
@@ -17603,7 +17603,7 @@
     </row>
     <row r="576" spans="1:11">
       <c r="A576">
-        <v>1716588000</v>
+        <v>1716577200</v>
       </c>
       <c r="B576" t="s">
         <v>585</v>
@@ -17629,7 +17629,7 @@
     </row>
     <row r="577" spans="1:11">
       <c r="A577">
-        <v>1716591600</v>
+        <v>1716580800</v>
       </c>
       <c r="B577" t="s">
         <v>586</v>
@@ -17655,7 +17655,7 @@
     </row>
     <row r="578" spans="1:11">
       <c r="A578">
-        <v>1716595200</v>
+        <v>1716584400</v>
       </c>
       <c r="B578" t="s">
         <v>587</v>
@@ -17681,7 +17681,7 @@
     </row>
     <row r="579" spans="1:11">
       <c r="A579">
-        <v>1716598800</v>
+        <v>1716588000</v>
       </c>
       <c r="B579" t="s">
         <v>588</v>
@@ -17707,7 +17707,7 @@
     </row>
     <row r="580" spans="1:11">
       <c r="A580">
-        <v>1716602400</v>
+        <v>1716591600</v>
       </c>
       <c r="B580" t="s">
         <v>589</v>
@@ -17733,7 +17733,7 @@
     </row>
     <row r="581" spans="1:11">
       <c r="A581">
-        <v>1716606000</v>
+        <v>1716595200</v>
       </c>
       <c r="B581" t="s">
         <v>590</v>
@@ -17759,7 +17759,7 @@
     </row>
     <row r="582" spans="1:11">
       <c r="A582">
-        <v>1716609600</v>
+        <v>1716598800</v>
       </c>
       <c r="B582" t="s">
         <v>591</v>
@@ -17785,7 +17785,7 @@
     </row>
     <row r="583" spans="1:11">
       <c r="A583">
-        <v>1716613200</v>
+        <v>1716602400</v>
       </c>
       <c r="B583" t="s">
         <v>592</v>
@@ -17811,7 +17811,7 @@
     </row>
     <row r="584" spans="1:11">
       <c r="A584">
-        <v>1716616800</v>
+        <v>1716606000</v>
       </c>
       <c r="B584" t="s">
         <v>593</v>
@@ -17837,7 +17837,7 @@
     </row>
     <row r="585" spans="1:11">
       <c r="A585">
-        <v>1716620400</v>
+        <v>1716609600</v>
       </c>
       <c r="B585" t="s">
         <v>594</v>
@@ -17863,7 +17863,7 @@
     </row>
     <row r="586" spans="1:11">
       <c r="A586">
-        <v>1716624000</v>
+        <v>1716613200</v>
       </c>
       <c r="B586" t="s">
         <v>595</v>
@@ -17889,7 +17889,7 @@
     </row>
     <row r="587" spans="1:11">
       <c r="A587">
-        <v>1716627600</v>
+        <v>1716616800</v>
       </c>
       <c r="B587" t="s">
         <v>596</v>
@@ -17915,7 +17915,7 @@
     </row>
     <row r="588" spans="1:11">
       <c r="A588">
-        <v>1716631200</v>
+        <v>1716620400</v>
       </c>
       <c r="B588" t="s">
         <v>597</v>
@@ -17941,7 +17941,7 @@
     </row>
     <row r="589" spans="1:11">
       <c r="A589">
-        <v>1716634800</v>
+        <v>1716624000</v>
       </c>
       <c r="B589" t="s">
         <v>598</v>
@@ -17967,7 +17967,7 @@
     </row>
     <row r="590" spans="1:11">
       <c r="A590">
-        <v>1716638400</v>
+        <v>1716627600</v>
       </c>
       <c r="B590" t="s">
         <v>599</v>
@@ -17993,7 +17993,7 @@
     </row>
     <row r="591" spans="1:11">
       <c r="A591">
-        <v>1716642000</v>
+        <v>1716631200</v>
       </c>
       <c r="B591" t="s">
         <v>600</v>
@@ -18019,7 +18019,7 @@
     </row>
     <row r="592" spans="1:11">
       <c r="A592">
-        <v>1716645600</v>
+        <v>1716634800</v>
       </c>
       <c r="B592" t="s">
         <v>601</v>
@@ -18045,7 +18045,7 @@
     </row>
     <row r="593" spans="1:11">
       <c r="A593">
-        <v>1716649200</v>
+        <v>1716638400</v>
       </c>
       <c r="B593" t="s">
         <v>602</v>
@@ -18071,7 +18071,7 @@
     </row>
     <row r="594" spans="1:11">
       <c r="A594">
-        <v>1716652800</v>
+        <v>1716642000</v>
       </c>
       <c r="B594" t="s">
         <v>603</v>
@@ -18097,7 +18097,7 @@
     </row>
     <row r="595" spans="1:11">
       <c r="A595">
-        <v>1716656400</v>
+        <v>1716645600</v>
       </c>
       <c r="B595" t="s">
         <v>604</v>
@@ -18123,7 +18123,7 @@
     </row>
     <row r="596" spans="1:11">
       <c r="A596">
-        <v>1716660000</v>
+        <v>1716649200</v>
       </c>
       <c r="B596" t="s">
         <v>605</v>
@@ -18149,7 +18149,7 @@
     </row>
     <row r="597" spans="1:11">
       <c r="A597">
-        <v>1716663600</v>
+        <v>1716652800</v>
       </c>
       <c r="B597" t="s">
         <v>606</v>
@@ -18175,7 +18175,7 @@
     </row>
     <row r="598" spans="1:11">
       <c r="A598">
-        <v>1716667200</v>
+        <v>1716656400</v>
       </c>
       <c r="B598" t="s">
         <v>607</v>
@@ -18201,7 +18201,7 @@
     </row>
     <row r="599" spans="1:11">
       <c r="A599">
-        <v>1716670800</v>
+        <v>1716660000</v>
       </c>
       <c r="B599" t="s">
         <v>608</v>
@@ -18227,7 +18227,7 @@
     </row>
     <row r="600" spans="1:11">
       <c r="A600">
-        <v>1716674400</v>
+        <v>1716663600</v>
       </c>
       <c r="B600" t="s">
         <v>609</v>
@@ -18253,7 +18253,7 @@
     </row>
     <row r="601" spans="1:11">
       <c r="A601">
-        <v>1716678000</v>
+        <v>1716667200</v>
       </c>
       <c r="B601" t="s">
         <v>610</v>
@@ -18279,7 +18279,7 @@
     </row>
     <row r="602" spans="1:11">
       <c r="A602">
-        <v>1716681600</v>
+        <v>1716670800</v>
       </c>
       <c r="B602" t="s">
         <v>611</v>
@@ -18305,7 +18305,7 @@
     </row>
     <row r="603" spans="1:11">
       <c r="A603">
-        <v>1716685200</v>
+        <v>1716674400</v>
       </c>
       <c r="B603" t="s">
         <v>612</v>
@@ -18331,7 +18331,7 @@
     </row>
     <row r="604" spans="1:11">
       <c r="A604">
-        <v>1716688800</v>
+        <v>1716678000</v>
       </c>
       <c r="B604" t="s">
         <v>613</v>
@@ -18357,7 +18357,7 @@
     </row>
     <row r="605" spans="1:11">
       <c r="A605">
-        <v>1716692400</v>
+        <v>1716681600</v>
       </c>
       <c r="B605" t="s">
         <v>614</v>
@@ -18383,7 +18383,7 @@
     </row>
     <row r="606" spans="1:11">
       <c r="A606">
-        <v>1716696000</v>
+        <v>1716685200</v>
       </c>
       <c r="B606" t="s">
         <v>615</v>
@@ -18409,7 +18409,7 @@
     </row>
     <row r="607" spans="1:11">
       <c r="A607">
-        <v>1716699600</v>
+        <v>1716688800</v>
       </c>
       <c r="B607" t="s">
         <v>616</v>
@@ -18435,7 +18435,7 @@
     </row>
     <row r="608" spans="1:11">
       <c r="A608">
-        <v>1716703200</v>
+        <v>1716692400</v>
       </c>
       <c r="B608" t="s">
         <v>617</v>
@@ -18461,7 +18461,7 @@
     </row>
     <row r="609" spans="1:11">
       <c r="A609">
-        <v>1716706800</v>
+        <v>1716696000</v>
       </c>
       <c r="B609" t="s">
         <v>618</v>
@@ -18487,7 +18487,7 @@
     </row>
     <row r="610" spans="1:11">
       <c r="A610">
-        <v>1716710400</v>
+        <v>1716699600</v>
       </c>
       <c r="B610" t="s">
         <v>619</v>
@@ -18513,7 +18513,7 @@
     </row>
     <row r="611" spans="1:11">
       <c r="A611">
-        <v>1716714000</v>
+        <v>1716703200</v>
       </c>
       <c r="B611" t="s">
         <v>620</v>
@@ -18539,7 +18539,7 @@
     </row>
     <row r="612" spans="1:11">
       <c r="A612">
-        <v>1716717600</v>
+        <v>1716706800</v>
       </c>
       <c r="B612" t="s">
         <v>621</v>
@@ -18565,7 +18565,7 @@
     </row>
     <row r="613" spans="1:11">
       <c r="A613">
-        <v>1716721200</v>
+        <v>1716710400</v>
       </c>
       <c r="B613" t="s">
         <v>622</v>
@@ -18591,7 +18591,7 @@
     </row>
     <row r="614" spans="1:11">
       <c r="A614">
-        <v>1716724800</v>
+        <v>1716714000</v>
       </c>
       <c r="B614" t="s">
         <v>623</v>
@@ -18617,7 +18617,7 @@
     </row>
     <row r="615" spans="1:11">
       <c r="A615">
-        <v>1716728400</v>
+        <v>1716717600</v>
       </c>
       <c r="B615" t="s">
         <v>624</v>
@@ -18643,7 +18643,7 @@
     </row>
     <row r="616" spans="1:11">
       <c r="A616">
-        <v>1716732000</v>
+        <v>1716721200</v>
       </c>
       <c r="B616" t="s">
         <v>625</v>
@@ -18669,7 +18669,7 @@
     </row>
     <row r="617" spans="1:11">
       <c r="A617">
-        <v>1716735600</v>
+        <v>1716724800</v>
       </c>
       <c r="B617" t="s">
         <v>626</v>
@@ -18695,7 +18695,7 @@
     </row>
     <row r="618" spans="1:11">
       <c r="A618">
-        <v>1716739200</v>
+        <v>1716728400</v>
       </c>
       <c r="B618" t="s">
         <v>627</v>
@@ -18721,7 +18721,7 @@
     </row>
     <row r="619" spans="1:11">
       <c r="A619">
-        <v>1716742800</v>
+        <v>1716732000</v>
       </c>
       <c r="B619" t="s">
         <v>628</v>
@@ -18747,7 +18747,7 @@
     </row>
     <row r="620" spans="1:11">
       <c r="A620">
-        <v>1716746400</v>
+        <v>1716735600</v>
       </c>
       <c r="B620" t="s">
         <v>629</v>
@@ -18773,7 +18773,7 @@
     </row>
     <row r="621" spans="1:11">
       <c r="A621">
-        <v>1716750000</v>
+        <v>1716739200</v>
       </c>
       <c r="B621" t="s">
         <v>630</v>
@@ -18799,7 +18799,7 @@
     </row>
     <row r="622" spans="1:11">
       <c r="A622">
-        <v>1716753600</v>
+        <v>1716742800</v>
       </c>
       <c r="B622" t="s">
         <v>631</v>
@@ -18825,7 +18825,7 @@
     </row>
     <row r="623" spans="1:11">
       <c r="A623">
-        <v>1716757200</v>
+        <v>1716746400</v>
       </c>
       <c r="B623" t="s">
         <v>632</v>
@@ -18851,7 +18851,7 @@
     </row>
     <row r="624" spans="1:11">
       <c r="A624">
-        <v>1716760800</v>
+        <v>1716750000</v>
       </c>
       <c r="B624" t="s">
         <v>633</v>
@@ -18877,7 +18877,7 @@
     </row>
     <row r="625" spans="1:11">
       <c r="A625">
-        <v>1716764400</v>
+        <v>1716753600</v>
       </c>
       <c r="B625" t="s">
         <v>634</v>
@@ -18903,7 +18903,7 @@
     </row>
     <row r="626" spans="1:11">
       <c r="A626">
-        <v>1716768000</v>
+        <v>1716757200</v>
       </c>
       <c r="B626" t="s">
         <v>635</v>
@@ -18929,7 +18929,7 @@
     </row>
     <row r="627" spans="1:11">
       <c r="A627">
-        <v>1716771600</v>
+        <v>1716760800</v>
       </c>
       <c r="B627" t="s">
         <v>636</v>
@@ -18955,7 +18955,7 @@
     </row>
     <row r="628" spans="1:11">
       <c r="A628">
-        <v>1716775200</v>
+        <v>1716764400</v>
       </c>
       <c r="B628" t="s">
         <v>637</v>
@@ -18981,7 +18981,7 @@
     </row>
     <row r="629" spans="1:11">
       <c r="A629">
-        <v>1716778800</v>
+        <v>1716768000</v>
       </c>
       <c r="B629" t="s">
         <v>638</v>
@@ -19007,7 +19007,7 @@
     </row>
     <row r="630" spans="1:11">
       <c r="A630">
-        <v>1716782400</v>
+        <v>1716771600</v>
       </c>
       <c r="B630" t="s">
         <v>639</v>
@@ -19033,7 +19033,7 @@
     </row>
     <row r="631" spans="1:11">
       <c r="A631">
-        <v>1716786000</v>
+        <v>1716775200</v>
       </c>
       <c r="B631" t="s">
         <v>640</v>
@@ -19059,7 +19059,7 @@
     </row>
     <row r="632" spans="1:11">
       <c r="A632">
-        <v>1716789600</v>
+        <v>1716778800</v>
       </c>
       <c r="B632" t="s">
         <v>641</v>
@@ -19085,7 +19085,7 @@
     </row>
     <row r="633" spans="1:11">
       <c r="A633">
-        <v>1716793200</v>
+        <v>1716782400</v>
       </c>
       <c r="B633" t="s">
         <v>642</v>
@@ -19111,7 +19111,7 @@
     </row>
     <row r="634" spans="1:11">
       <c r="A634">
-        <v>1716796800</v>
+        <v>1716786000</v>
       </c>
       <c r="B634" t="s">
         <v>643</v>
@@ -19137,7 +19137,7 @@
     </row>
     <row r="635" spans="1:11">
       <c r="A635">
-        <v>1716800400</v>
+        <v>1716789600</v>
       </c>
       <c r="B635" t="s">
         <v>644</v>
@@ -19163,7 +19163,7 @@
     </row>
     <row r="636" spans="1:11">
       <c r="A636">
-        <v>1716804000</v>
+        <v>1716793200</v>
       </c>
       <c r="B636" t="s">
         <v>645</v>
@@ -19189,7 +19189,7 @@
     </row>
     <row r="637" spans="1:11">
       <c r="A637">
-        <v>1716807600</v>
+        <v>1716796800</v>
       </c>
       <c r="B637" t="s">
         <v>646</v>
@@ -19215,7 +19215,7 @@
     </row>
     <row r="638" spans="1:11">
       <c r="A638">
-        <v>1716811200</v>
+        <v>1716800400</v>
       </c>
       <c r="B638" t="s">
         <v>647</v>
@@ -19241,7 +19241,7 @@
     </row>
     <row r="639" spans="1:11">
       <c r="A639">
-        <v>1716814800</v>
+        <v>1716804000</v>
       </c>
       <c r="B639" t="s">
         <v>648</v>
@@ -19267,7 +19267,7 @@
     </row>
     <row r="640" spans="1:11">
       <c r="A640">
-        <v>1716818400</v>
+        <v>1716807600</v>
       </c>
       <c r="B640" t="s">
         <v>649</v>
@@ -19293,7 +19293,7 @@
     </row>
     <row r="641" spans="1:11">
       <c r="A641">
-        <v>1716822000</v>
+        <v>1716811200</v>
       </c>
       <c r="B641" t="s">
         <v>650</v>
@@ -19319,7 +19319,7 @@
     </row>
     <row r="642" spans="1:11">
       <c r="A642">
-        <v>1716825600</v>
+        <v>1716814800</v>
       </c>
       <c r="B642" t="s">
         <v>651</v>
@@ -19345,7 +19345,7 @@
     </row>
     <row r="643" spans="1:11">
       <c r="A643">
-        <v>1716829200</v>
+        <v>1716818400</v>
       </c>
       <c r="B643" t="s">
         <v>652</v>
@@ -19371,7 +19371,7 @@
     </row>
     <row r="644" spans="1:11">
       <c r="A644">
-        <v>1716832800</v>
+        <v>1716822000</v>
       </c>
       <c r="B644" t="s">
         <v>653</v>
@@ -19397,7 +19397,7 @@
     </row>
     <row r="645" spans="1:11">
       <c r="A645">
-        <v>1716836400</v>
+        <v>1716825600</v>
       </c>
       <c r="B645" t="s">
         <v>654</v>
@@ -19423,7 +19423,7 @@
     </row>
     <row r="646" spans="1:11">
       <c r="A646">
-        <v>1716840000</v>
+        <v>1716829200</v>
       </c>
       <c r="B646" t="s">
         <v>655</v>
@@ -19449,7 +19449,7 @@
     </row>
     <row r="647" spans="1:11">
       <c r="A647">
-        <v>1716843600</v>
+        <v>1716832800</v>
       </c>
       <c r="B647" t="s">
         <v>656</v>
@@ -19475,7 +19475,7 @@
     </row>
     <row r="648" spans="1:11">
       <c r="A648">
-        <v>1716847200</v>
+        <v>1716836400</v>
       </c>
       <c r="B648" t="s">
         <v>657</v>
@@ -19501,7 +19501,7 @@
     </row>
     <row r="649" spans="1:11">
       <c r="A649">
-        <v>1716850800</v>
+        <v>1716840000</v>
       </c>
       <c r="B649" t="s">
         <v>658</v>
@@ -19527,7 +19527,7 @@
     </row>
     <row r="650" spans="1:11">
       <c r="A650">
-        <v>1716854400</v>
+        <v>1716843600</v>
       </c>
       <c r="B650" t="s">
         <v>659</v>
@@ -19553,7 +19553,7 @@
     </row>
     <row r="651" spans="1:11">
       <c r="A651">
-        <v>1716858000</v>
+        <v>1716847200</v>
       </c>
       <c r="B651" t="s">
         <v>660</v>
@@ -19579,7 +19579,7 @@
     </row>
     <row r="652" spans="1:11">
       <c r="A652">
-        <v>1716861600</v>
+        <v>1716850800</v>
       </c>
       <c r="B652" t="s">
         <v>661</v>
@@ -19605,7 +19605,7 @@
     </row>
     <row r="653" spans="1:11">
       <c r="A653">
-        <v>1716865200</v>
+        <v>1716854400</v>
       </c>
       <c r="B653" t="s">
         <v>662</v>
@@ -19631,7 +19631,7 @@
     </row>
     <row r="654" spans="1:11">
       <c r="A654">
-        <v>1716868800</v>
+        <v>1716858000</v>
       </c>
       <c r="B654" t="s">
         <v>663</v>
@@ -19657,7 +19657,7 @@
     </row>
     <row r="655" spans="1:11">
       <c r="A655">
-        <v>1716872400</v>
+        <v>1716861600</v>
       </c>
       <c r="B655" t="s">
         <v>664</v>
@@ -19683,7 +19683,7 @@
     </row>
     <row r="656" spans="1:11">
       <c r="A656">
-        <v>1716876000</v>
+        <v>1716865200</v>
       </c>
       <c r="B656" t="s">
         <v>665</v>
@@ -19709,7 +19709,7 @@
     </row>
     <row r="657" spans="1:11">
       <c r="A657">
-        <v>1716879600</v>
+        <v>1716868800</v>
       </c>
       <c r="B657" t="s">
         <v>666</v>
@@ -19735,7 +19735,7 @@
     </row>
     <row r="658" spans="1:11">
       <c r="A658">
-        <v>1716883200</v>
+        <v>1716872400</v>
       </c>
       <c r="B658" t="s">
         <v>667</v>
@@ -19761,7 +19761,7 @@
     </row>
     <row r="659" spans="1:11">
       <c r="A659">
-        <v>1716886800</v>
+        <v>1716876000</v>
       </c>
       <c r="B659" t="s">
         <v>668</v>
@@ -19787,7 +19787,7 @@
     </row>
     <row r="660" spans="1:11">
       <c r="A660">
-        <v>1716890400</v>
+        <v>1716879600</v>
       </c>
       <c r="B660" t="s">
         <v>669</v>
@@ -19813,7 +19813,7 @@
     </row>
     <row r="661" spans="1:11">
       <c r="A661">
-        <v>1716894000</v>
+        <v>1716883200</v>
       </c>
       <c r="B661" t="s">
         <v>670</v>
@@ -19839,7 +19839,7 @@
     </row>
     <row r="662" spans="1:11">
       <c r="A662">
-        <v>1716897600</v>
+        <v>1716886800</v>
       </c>
       <c r="B662" t="s">
         <v>671</v>
@@ -19865,7 +19865,7 @@
     </row>
     <row r="663" spans="1:11">
       <c r="A663">
-        <v>1716901200</v>
+        <v>1716890400</v>
       </c>
       <c r="B663" t="s">
         <v>672</v>
@@ -19891,7 +19891,7 @@
     </row>
     <row r="664" spans="1:11">
       <c r="A664">
-        <v>1716904800</v>
+        <v>1716894000</v>
       </c>
       <c r="B664" t="s">
         <v>673</v>
@@ -19917,7 +19917,7 @@
     </row>
     <row r="665" spans="1:11">
       <c r="A665">
-        <v>1716908400</v>
+        <v>1716897600</v>
       </c>
       <c r="B665" t="s">
         <v>674</v>
@@ -19943,7 +19943,7 @@
     </row>
     <row r="666" spans="1:11">
       <c r="A666">
-        <v>1716912000</v>
+        <v>1716901200</v>
       </c>
       <c r="B666" t="s">
         <v>675</v>
@@ -19969,7 +19969,7 @@
     </row>
     <row r="667" spans="1:11">
       <c r="A667">
-        <v>1716915600</v>
+        <v>1716904800</v>
       </c>
       <c r="B667" t="s">
         <v>676</v>
@@ -19995,7 +19995,7 @@
     </row>
     <row r="668" spans="1:11">
       <c r="A668">
-        <v>1716919200</v>
+        <v>1716908400</v>
       </c>
       <c r="B668" t="s">
         <v>677</v>
@@ -20021,7 +20021,7 @@
     </row>
     <row r="669" spans="1:11">
       <c r="A669">
-        <v>1716922800</v>
+        <v>1716912000</v>
       </c>
       <c r="B669" t="s">
         <v>678</v>
@@ -20047,7 +20047,7 @@
     </row>
     <row r="670" spans="1:11">
       <c r="A670">
-        <v>1716926400</v>
+        <v>1716915600</v>
       </c>
       <c r="B670" t="s">
         <v>679</v>
@@ -20073,7 +20073,7 @@
     </row>
     <row r="671" spans="1:11">
       <c r="A671">
-        <v>1716930000</v>
+        <v>1716919200</v>
       </c>
       <c r="B671" t="s">
         <v>680</v>
@@ -20099,7 +20099,7 @@
     </row>
     <row r="672" spans="1:11">
       <c r="A672">
-        <v>1716933600</v>
+        <v>1716922800</v>
       </c>
       <c r="B672" t="s">
         <v>681</v>
@@ -20125,7 +20125,7 @@
     </row>
     <row r="673" spans="1:11">
       <c r="A673">
-        <v>1716937200</v>
+        <v>1716926400</v>
       </c>
       <c r="B673" t="s">
         <v>682</v>
@@ -20151,7 +20151,7 @@
     </row>
     <row r="674" spans="1:11">
       <c r="A674">
-        <v>1716940800</v>
+        <v>1716930000</v>
       </c>
       <c r="B674" t="s">
         <v>683</v>
@@ -20177,7 +20177,7 @@
     </row>
     <row r="675" spans="1:11">
       <c r="A675">
-        <v>1716944400</v>
+        <v>1716933600</v>
       </c>
       <c r="B675" t="s">
         <v>684</v>
@@ -20203,7 +20203,7 @@
     </row>
     <row r="676" spans="1:11">
       <c r="A676">
-        <v>1716948000</v>
+        <v>1716937200</v>
       </c>
       <c r="B676" t="s">
         <v>685</v>
@@ -20229,7 +20229,7 @@
     </row>
     <row r="677" spans="1:11">
       <c r="A677">
-        <v>1716951600</v>
+        <v>1716940800</v>
       </c>
       <c r="B677" t="s">
         <v>686</v>
@@ -20255,7 +20255,7 @@
     </row>
     <row r="678" spans="1:11">
       <c r="A678">
-        <v>1716955200</v>
+        <v>1716944400</v>
       </c>
       <c r="B678" t="s">
         <v>687</v>
@@ -20281,7 +20281,7 @@
     </row>
     <row r="679" spans="1:11">
       <c r="A679">
-        <v>1716958800</v>
+        <v>1716948000</v>
       </c>
       <c r="B679" t="s">
         <v>688</v>
@@ -20307,7 +20307,7 @@
     </row>
     <row r="680" spans="1:11">
       <c r="A680">
-        <v>1716962400</v>
+        <v>1716951600</v>
       </c>
       <c r="B680" t="s">
         <v>689</v>
@@ -20333,7 +20333,7 @@
     </row>
     <row r="681" spans="1:11">
       <c r="A681">
-        <v>1716966000</v>
+        <v>1716955200</v>
       </c>
       <c r="B681" t="s">
         <v>690</v>
@@ -20359,7 +20359,7 @@
     </row>
     <row r="682" spans="1:11">
       <c r="A682">
-        <v>1716969600</v>
+        <v>1716958800</v>
       </c>
       <c r="B682" t="s">
         <v>691</v>
@@ -20385,7 +20385,7 @@
     </row>
     <row r="683" spans="1:11">
       <c r="A683">
-        <v>1716973200</v>
+        <v>1716962400</v>
       </c>
       <c r="B683" t="s">
         <v>692</v>
@@ -20411,7 +20411,7 @@
     </row>
     <row r="684" spans="1:11">
       <c r="A684">
-        <v>1716976800</v>
+        <v>1716966000</v>
       </c>
       <c r="B684" t="s">
         <v>693</v>
@@ -20437,7 +20437,7 @@
     </row>
     <row r="685" spans="1:11">
       <c r="A685">
-        <v>1716980400</v>
+        <v>1716969600</v>
       </c>
       <c r="B685" t="s">
         <v>694</v>
@@ -20463,7 +20463,7 @@
     </row>
     <row r="686" spans="1:11">
       <c r="A686">
-        <v>1716984000</v>
+        <v>1716973200</v>
       </c>
       <c r="B686" t="s">
         <v>695</v>
@@ -20489,7 +20489,7 @@
     </row>
     <row r="687" spans="1:11">
       <c r="A687">
-        <v>1716987600</v>
+        <v>1716976800</v>
       </c>
       <c r="B687" t="s">
         <v>696</v>
@@ -20515,7 +20515,7 @@
     </row>
     <row r="688" spans="1:11">
       <c r="A688">
-        <v>1716991200</v>
+        <v>1716980400</v>
       </c>
       <c r="B688" t="s">
         <v>697</v>
@@ -20541,7 +20541,7 @@
     </row>
     <row r="689" spans="1:11">
       <c r="A689">
-        <v>1716994800</v>
+        <v>1716984000</v>
       </c>
       <c r="B689" t="s">
         <v>698</v>
@@ -20567,7 +20567,7 @@
     </row>
     <row r="690" spans="1:11">
       <c r="A690">
-        <v>1716998400</v>
+        <v>1716987600</v>
       </c>
       <c r="B690" t="s">
         <v>699</v>
@@ -20593,7 +20593,7 @@
     </row>
     <row r="691" spans="1:11">
       <c r="A691">
-        <v>1717002000</v>
+        <v>1716991200</v>
       </c>
       <c r="B691" t="s">
         <v>700</v>
@@ -20619,7 +20619,7 @@
     </row>
     <row r="692" spans="1:11">
       <c r="A692">
-        <v>1717005600</v>
+        <v>1716994800</v>
       </c>
       <c r="B692" t="s">
         <v>701</v>
@@ -20645,7 +20645,7 @@
     </row>
     <row r="693" spans="1:11">
       <c r="A693">
-        <v>1717009200</v>
+        <v>1716998400</v>
       </c>
       <c r="B693" t="s">
         <v>702</v>
@@ -20671,7 +20671,7 @@
     </row>
     <row r="694" spans="1:11">
       <c r="A694">
-        <v>1717012800</v>
+        <v>1717002000</v>
       </c>
       <c r="B694" t="s">
         <v>703</v>
@@ -20697,7 +20697,7 @@
     </row>
     <row r="695" spans="1:11">
       <c r="A695">
-        <v>1717016400</v>
+        <v>1717005600</v>
       </c>
       <c r="B695" t="s">
         <v>704</v>
@@ -20723,7 +20723,7 @@
     </row>
     <row r="696" spans="1:11">
       <c r="A696">
-        <v>1717020000</v>
+        <v>1717009200</v>
       </c>
       <c r="B696" t="s">
         <v>705</v>
@@ -20749,7 +20749,7 @@
     </row>
     <row r="697" spans="1:11">
       <c r="A697">
-        <v>1717023600</v>
+        <v>1717012800</v>
       </c>
       <c r="B697" t="s">
         <v>706</v>
@@ -20775,7 +20775,7 @@
     </row>
     <row r="698" spans="1:11">
       <c r="A698">
-        <v>1717027200</v>
+        <v>1717016400</v>
       </c>
       <c r="B698" t="s">
         <v>707</v>
@@ -20801,7 +20801,7 @@
     </row>
     <row r="699" spans="1:11">
       <c r="A699">
-        <v>1717030800</v>
+        <v>1717020000</v>
       </c>
       <c r="B699" t="s">
         <v>708</v>
@@ -20827,7 +20827,7 @@
     </row>
     <row r="700" spans="1:11">
       <c r="A700">
-        <v>1717034400</v>
+        <v>1717023600</v>
       </c>
       <c r="B700" t="s">
         <v>709</v>
@@ -20853,7 +20853,7 @@
     </row>
     <row r="701" spans="1:11">
       <c r="A701">
-        <v>1717038000</v>
+        <v>1717027200</v>
       </c>
       <c r="B701" t="s">
         <v>710</v>
@@ -20879,7 +20879,7 @@
     </row>
     <row r="702" spans="1:11">
       <c r="A702">
-        <v>1717041600</v>
+        <v>1717030800</v>
       </c>
       <c r="B702" t="s">
         <v>711</v>
@@ -20905,7 +20905,7 @@
     </row>
     <row r="703" spans="1:11">
       <c r="A703">
-        <v>1717045200</v>
+        <v>1717034400</v>
       </c>
       <c r="B703" t="s">
         <v>712</v>
@@ -20931,7 +20931,7 @@
     </row>
     <row r="704" spans="1:11">
       <c r="A704">
-        <v>1717048800</v>
+        <v>1717038000</v>
       </c>
       <c r="B704" t="s">
         <v>713</v>
@@ -20957,7 +20957,7 @@
     </row>
     <row r="705" spans="1:11">
       <c r="A705">
-        <v>1717052400</v>
+        <v>1717041600</v>
       </c>
       <c r="B705" t="s">
         <v>714</v>
@@ -20983,7 +20983,7 @@
     </row>
     <row r="706" spans="1:11">
       <c r="A706">
-        <v>1717056000</v>
+        <v>1717045200</v>
       </c>
       <c r="B706" t="s">
         <v>715</v>
@@ -21009,7 +21009,7 @@
     </row>
     <row r="707" spans="1:11">
       <c r="A707">
-        <v>1717059600</v>
+        <v>1717048800</v>
       </c>
       <c r="B707" t="s">
         <v>716</v>
@@ -21035,7 +21035,7 @@
     </row>
     <row r="708" spans="1:11">
       <c r="A708">
-        <v>1717063200</v>
+        <v>1717052400</v>
       </c>
       <c r="B708" t="s">
         <v>717</v>
@@ -21061,7 +21061,7 @@
     </row>
     <row r="709" spans="1:11">
       <c r="A709">
-        <v>1717066800</v>
+        <v>1717056000</v>
       </c>
       <c r="B709" t="s">
         <v>718</v>
@@ -21087,7 +21087,7 @@
     </row>
     <row r="710" spans="1:11">
       <c r="A710">
-        <v>1717070400</v>
+        <v>1717059600</v>
       </c>
       <c r="B710" t="s">
         <v>719</v>
@@ -21113,7 +21113,7 @@
     </row>
     <row r="711" spans="1:11">
       <c r="A711">
-        <v>1717074000</v>
+        <v>1717063200</v>
       </c>
       <c r="B711" t="s">
         <v>720</v>
@@ -21139,7 +21139,7 @@
     </row>
     <row r="712" spans="1:11">
       <c r="A712">
-        <v>1717077600</v>
+        <v>1717066800</v>
       </c>
       <c r="B712" t="s">
         <v>721</v>
@@ -21165,7 +21165,7 @@
     </row>
     <row r="713" spans="1:11">
       <c r="A713">
-        <v>1717081200</v>
+        <v>1717070400</v>
       </c>
       <c r="B713" t="s">
         <v>722</v>
@@ -21191,7 +21191,7 @@
     </row>
     <row r="714" spans="1:11">
       <c r="A714">
-        <v>1717084800</v>
+        <v>1717074000</v>
       </c>
       <c r="B714" t="s">
         <v>723</v>
@@ -21217,7 +21217,7 @@
     </row>
     <row r="715" spans="1:11">
       <c r="A715">
-        <v>1717088400</v>
+        <v>1717077600</v>
       </c>
       <c r="B715" t="s">
         <v>724</v>
@@ -21243,7 +21243,7 @@
     </row>
     <row r="716" spans="1:11">
       <c r="A716">
-        <v>1717092000</v>
+        <v>1717081200</v>
       </c>
       <c r="B716" t="s">
         <v>725</v>
@@ -21269,7 +21269,7 @@
     </row>
     <row r="717" spans="1:11">
       <c r="A717">
-        <v>1717095600</v>
+        <v>1717084800</v>
       </c>
       <c r="B717" t="s">
         <v>726</v>
@@ -21295,7 +21295,7 @@
     </row>
     <row r="718" spans="1:11">
       <c r="A718">
-        <v>1717099200</v>
+        <v>1717088400</v>
       </c>
       <c r="B718" t="s">
         <v>727</v>
@@ -21321,7 +21321,7 @@
     </row>
     <row r="719" spans="1:11">
       <c r="A719">
-        <v>1717102800</v>
+        <v>1717092000</v>
       </c>
       <c r="B719" t="s">
         <v>728</v>
@@ -21347,7 +21347,7 @@
     </row>
     <row r="720" spans="1:11">
       <c r="A720">
-        <v>1717106400</v>
+        <v>1717095600</v>
       </c>
       <c r="B720" t="s">
         <v>729</v>
@@ -21373,7 +21373,7 @@
     </row>
     <row r="721" spans="1:11">
       <c r="A721">
-        <v>1717110000</v>
+        <v>1717099200</v>
       </c>
       <c r="B721" t="s">
         <v>730</v>
@@ -21399,7 +21399,7 @@
     </row>
     <row r="722" spans="1:11">
       <c r="A722">
-        <v>1717113600</v>
+        <v>1717102800</v>
       </c>
       <c r="B722" t="s">
         <v>731</v>
@@ -21425,7 +21425,7 @@
     </row>
     <row r="723" spans="1:11">
       <c r="A723">
-        <v>1717117200</v>
+        <v>1717106400</v>
       </c>
       <c r="B723" t="s">
         <v>732</v>
@@ -21451,7 +21451,7 @@
     </row>
     <row r="724" spans="1:11">
       <c r="A724">
-        <v>1717120800</v>
+        <v>1717110000</v>
       </c>
       <c r="B724" t="s">
         <v>733</v>
@@ -21477,7 +21477,7 @@
     </row>
     <row r="725" spans="1:11">
       <c r="A725">
-        <v>1717124400</v>
+        <v>1717113600</v>
       </c>
       <c r="B725" t="s">
         <v>734</v>
@@ -21503,7 +21503,7 @@
     </row>
     <row r="726" spans="1:11">
       <c r="A726">
-        <v>1717128000</v>
+        <v>1717117200</v>
       </c>
       <c r="B726" t="s">
         <v>735</v>
@@ -21529,7 +21529,7 @@
     </row>
     <row r="727" spans="1:11">
       <c r="A727">
-        <v>1717131600</v>
+        <v>1717120800</v>
       </c>
       <c r="B727" t="s">
         <v>736</v>
@@ -21555,7 +21555,7 @@
     </row>
     <row r="728" spans="1:11">
       <c r="A728">
-        <v>1717135200</v>
+        <v>1717124400</v>
       </c>
       <c r="B728" t="s">
         <v>737</v>
@@ -21581,7 +21581,7 @@
     </row>
     <row r="729" spans="1:11">
       <c r="A729">
-        <v>1717138800</v>
+        <v>1717128000</v>
       </c>
       <c r="B729" t="s">
         <v>738</v>
@@ -21607,7 +21607,7 @@
     </row>
     <row r="730" spans="1:11">
       <c r="A730">
-        <v>1717142400</v>
+        <v>1717131600</v>
       </c>
       <c r="B730" t="s">
         <v>739</v>
@@ -21633,7 +21633,7 @@
     </row>
     <row r="731" spans="1:11">
       <c r="A731">
-        <v>1717146000</v>
+        <v>1717135200</v>
       </c>
       <c r="B731" t="s">
         <v>740</v>
@@ -21659,7 +21659,7 @@
     </row>
     <row r="732" spans="1:11">
       <c r="A732">
-        <v>1717149600</v>
+        <v>1717138800</v>
       </c>
       <c r="B732" t="s">
         <v>741</v>
@@ -21685,7 +21685,7 @@
     </row>
     <row r="733" spans="1:11">
       <c r="A733">
-        <v>1717153200</v>
+        <v>1717142400</v>
       </c>
       <c r="B733" t="s">
         <v>742</v>
@@ -21711,7 +21711,7 @@
     </row>
     <row r="734" spans="1:11">
       <c r="A734">
-        <v>1717156800</v>
+        <v>1717146000</v>
       </c>
       <c r="B734" t="s">
         <v>743</v>
@@ -21737,7 +21737,7 @@
     </row>
     <row r="735" spans="1:11">
       <c r="A735">
-        <v>1717160400</v>
+        <v>1717149600</v>
       </c>
       <c r="B735" t="s">
         <v>744</v>
@@ -21763,7 +21763,7 @@
     </row>
     <row r="736" spans="1:11">
       <c r="A736">
-        <v>1717164000</v>
+        <v>1717153200</v>
       </c>
       <c r="B736" t="s">
         <v>745</v>
@@ -21789,7 +21789,7 @@
     </row>
     <row r="737" spans="1:11">
       <c r="A737">
-        <v>1717167600</v>
+        <v>1717156800</v>
       </c>
       <c r="B737" t="s">
         <v>746</v>
@@ -21815,7 +21815,7 @@
     </row>
     <row r="738" spans="1:11">
       <c r="A738">
-        <v>1717171200</v>
+        <v>1717160400</v>
       </c>
       <c r="B738" t="s">
         <v>747</v>
@@ -21841,7 +21841,7 @@
     </row>
     <row r="739" spans="1:11">
       <c r="A739">
-        <v>1717174800</v>
+        <v>1717164000</v>
       </c>
       <c r="B739" t="s">
         <v>748</v>
@@ -21867,7 +21867,7 @@
     </row>
     <row r="740" spans="1:11">
       <c r="A740">
-        <v>1717178400</v>
+        <v>1717167600</v>
       </c>
       <c r="B740" t="s">
         <v>749</v>
@@ -21893,7 +21893,7 @@
     </row>
     <row r="741" spans="1:11">
       <c r="A741">
-        <v>1717182000</v>
+        <v>1717171200</v>
       </c>
       <c r="B741" t="s">
         <v>750</v>
@@ -21919,7 +21919,7 @@
     </row>
     <row r="742" spans="1:11">
       <c r="A742">
-        <v>1717185600</v>
+        <v>1717174800</v>
       </c>
       <c r="B742" t="s">
         <v>751</v>
@@ -21945,7 +21945,7 @@
     </row>
     <row r="743" spans="1:11">
       <c r="A743">
-        <v>1717189200</v>
+        <v>1717178400</v>
       </c>
       <c r="B743" t="s">
         <v>752</v>
@@ -21971,7 +21971,7 @@
     </row>
     <row r="744" spans="1:11">
       <c r="A744">
-        <v>1717192800</v>
+        <v>1717182000</v>
       </c>
       <c r="B744" t="s">
         <v>753</v>
@@ -21997,7 +21997,7 @@
     </row>
     <row r="745" spans="1:11">
       <c r="A745">
-        <v>1717196400</v>
+        <v>1717185600</v>
       </c>
       <c r="B745" t="s">
         <v>754</v>
